--- a/services/migration_tool/functions/define_src_data/polers_test/移行定義FMT.xlsx
+++ b/services/migration_tool/functions/define_src_data/polers_test/移行定義FMT.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\4569581_bizsys\MyProject\mono-repo\services\migration_tool\functions\define_src_data\polers_test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\takujiru\MyProject\mono-repo\services\migration_tool\functions\define_src_data\polers_test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77A477F5-7E1A-4DBF-A748-B66D5CC01E96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E65AA4C5-014D-4A2C-B0BF-AC81CB95522A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="27405" windowHeight="16440" activeTab="1" xr2:uid="{83C05664-4C1D-4528-99DA-491EA85F2A77}"/>
+    <workbookView xWindow="5820" yWindow="1280" windowWidth="28140" windowHeight="16950" activeTab="1" xr2:uid="{83C05664-4C1D-4528-99DA-491EA85F2A77}"/>
   </bookViews>
   <sheets>
     <sheet name="一覧" sheetId="3" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="615" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="622" uniqueCount="92">
   <si>
     <t>移行先テーブル</t>
     <rPh sb="0" eb="2">
@@ -232,10 +232,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>varchar</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>‐</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -251,24 +247,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>桁</t>
-    <rPh sb="0" eb="1">
-      <t>ケタ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>15,0</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>結合キー</t>
-    <rPh sb="0" eb="2">
-      <t>ケツゴウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>加工要件</t>
     <rPh sb="0" eb="4">
       <t>カコウヨウケン</t>
@@ -331,15 +309,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>int</t>
-  </si>
-  <si>
-    <t>str</t>
-  </si>
-  <si>
-    <t>datetime</t>
-  </si>
-  <si>
     <t>ファイル形式</t>
     <rPh sb="4" eb="6">
       <t>ケイシキ</t>
@@ -518,6 +487,32 @@
   </si>
   <si>
     <t>シート10</t>
+  </si>
+  <si>
+    <t>連番</t>
+    <rPh sb="0" eb="2">
+      <t>レンバン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>現在日</t>
+    <rPh sb="0" eb="3">
+      <t>ゲンザイビ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1,0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>15,1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>numeric</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -704,7 +699,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -741,15 +736,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -766,6 +752,36 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -785,36 +801,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1260,34 +1246,34 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="9" style="7"/>
     <col min="2" max="2" width="38.5" style="7" customWidth="1"/>
-    <col min="3" max="3" width="11.875" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.83203125" style="7" bestFit="1" customWidth="1"/>
     <col min="4" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="7" t="s">
-        <v>43</v>
-      </c>
       <c r="C1" s="7" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="18.75" x14ac:dyDescent="0.4">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="7">
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="C2" s="7" t="str">
         <f>A2&amp;"_"&amp;B2</f>
@@ -1298,7 +1284,7 @@
         <v>■</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="18.75" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:4" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="7">
         <v>2</v>
       </c>
@@ -1311,7 +1297,7 @@
         <v>■</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="18.75" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:4" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="7">
         <v>3</v>
       </c>
@@ -1324,7 +1310,7 @@
         <v>■</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="18.75" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:4" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="7">
         <v>4</v>
       </c>
@@ -1337,7 +1323,7 @@
         <v>■</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="18.75" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:4" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="7">
         <v>5</v>
       </c>
@@ -1350,7 +1336,7 @@
         <v>■</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="18.75" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:4" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="7">
         <v>6</v>
       </c>
@@ -1363,7 +1349,7 @@
         <v>■</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="18.75" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:4" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="7">
         <v>7</v>
       </c>
@@ -1376,7 +1362,7 @@
         <v>■</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="18.75" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:4" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="7">
         <v>8</v>
       </c>
@@ -1389,7 +1375,7 @@
         <v>■</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="18.75" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:4" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="7">
         <v>9</v>
       </c>
@@ -1402,7 +1388,7 @@
         <v>■</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="18.75" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:4" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="7">
         <v>10</v>
       </c>
@@ -1415,7 +1401,7 @@
         <v>■</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="18.75" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:4" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="7">
         <v>11</v>
       </c>
@@ -1428,7 +1414,7 @@
         <v>■</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="18.75" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:4" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="7">
         <v>12</v>
       </c>
@@ -1441,7 +1427,7 @@
         <v>■</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="18.75" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:4" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="7">
         <v>13</v>
       </c>
@@ -1454,7 +1440,7 @@
         <v>■</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="18.75" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:4" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="7">
         <v>14</v>
       </c>
@@ -1467,7 +1453,7 @@
         <v>■</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="18.75" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:4" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="7">
         <v>15</v>
       </c>
@@ -1480,7 +1466,7 @@
         <v>■</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="18.75" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:4" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="7">
         <v>16</v>
       </c>
@@ -1493,7 +1479,7 @@
         <v>■</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="18.75" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:4" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="7">
         <v>17</v>
       </c>
@@ -1506,7 +1492,7 @@
         <v>■</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="18.75" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:4" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="7">
         <v>18</v>
       </c>
@@ -1519,7 +1505,7 @@
         <v>■</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="18.75" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:4" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="7">
         <v>19</v>
       </c>
@@ -1532,7 +1518,7 @@
         <v>■</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="18.75" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:4" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="7">
         <v>20</v>
       </c>
@@ -1545,7 +1531,7 @@
         <v>■</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="18.75" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:4" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="7">
         <v>21</v>
       </c>
@@ -1558,7 +1544,7 @@
         <v>■</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="18.75" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:4" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="7">
         <v>22</v>
       </c>
@@ -1571,7 +1557,7 @@
         <v>■</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="18.75" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:4" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="7">
         <v>23</v>
       </c>
@@ -1584,7 +1570,7 @@
         <v>■</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="18.75" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:4" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="7">
         <v>24</v>
       </c>
@@ -1597,7 +1583,7 @@
         <v>■</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="18.75" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:4" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="7">
         <v>25</v>
       </c>
@@ -1610,7 +1596,7 @@
         <v>■</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="18.75" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:4" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="7">
         <v>26</v>
       </c>
@@ -1623,7 +1609,7 @@
         <v>■</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="18.75" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:4" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="7">
         <v>27</v>
       </c>
@@ -1636,7 +1622,7 @@
         <v>■</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="18.75" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:4" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="7">
         <v>28</v>
       </c>
@@ -1649,7 +1635,7 @@
         <v>■</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="18.75" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:4" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="7">
         <v>29</v>
       </c>
@@ -1662,7 +1648,7 @@
         <v>■</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="18.75" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:4" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="7">
         <v>30</v>
       </c>
@@ -1675,7 +1661,7 @@
         <v>■</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="18.75" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:4" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="7">
         <v>31</v>
       </c>
@@ -1688,7 +1674,7 @@
         <v>■</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="18.75" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:4" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="7">
         <v>32</v>
       </c>
@@ -1701,7 +1687,7 @@
         <v>■</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="18.75" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:4" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="7">
         <v>33</v>
       </c>
@@ -1714,7 +1700,7 @@
         <v>■</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="18.75" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:4" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="7">
         <v>34</v>
       </c>
@@ -1727,7 +1713,7 @@
         <v>■</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="18.75" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:4" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="7">
         <v>35</v>
       </c>
@@ -1754,36 +1740,36 @@
   <dimension ref="A1:AH27"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="U10" sqref="U10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="14.25" outlineLevelCol="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="13.5" outlineLevelCol="1" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="9.875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="9.83203125" style="2" customWidth="1"/>
     <col min="2" max="3" width="14.75" style="2" customWidth="1"/>
-    <col min="4" max="4" width="8.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="5.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.6640625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="13.58203125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="5.58203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.08203125" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.25" style="2" customWidth="1"/>
-    <col min="9" max="9" width="9.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.83203125" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="19" width="7" style="2" customWidth="1" outlineLevel="1"/>
-    <col min="20" max="20" width="4.375" style="3" customWidth="1"/>
+    <col min="20" max="20" width="4.33203125" style="3" customWidth="1"/>
     <col min="21" max="22" width="13.75" style="2" customWidth="1"/>
     <col min="23" max="23" width="4.5" style="2" customWidth="1"/>
-    <col min="24" max="24" width="8.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="12" style="2" customWidth="1"/>
     <col min="25" max="25" width="6" style="2" customWidth="1"/>
-    <col min="26" max="26" width="5.125" style="2" customWidth="1"/>
-    <col min="27" max="27" width="9.875" style="2" customWidth="1"/>
+    <col min="26" max="26" width="5.08203125" style="2" customWidth="1"/>
+    <col min="27" max="27" width="9.83203125" style="2" customWidth="1"/>
     <col min="28" max="28" width="13.75" style="2" customWidth="1"/>
-    <col min="29" max="30" width="5.625" style="2" customWidth="1"/>
-    <col min="31" max="31" width="8.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="5.58203125" style="2" customWidth="1"/>
+    <col min="31" max="31" width="11.4140625" style="2" customWidth="1"/>
     <col min="32" max="33" width="6" style="2" customWidth="1"/>
-    <col min="34" max="34" width="9.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="35" max="16384" width="8.625" style="2"/>
+    <col min="34" max="34" width="9.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="35" max="16384" width="8.58203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -1792,15 +1778,15 @@
       </c>
       <c r="V1" s="8"/>
     </row>
-    <row r="2" spans="1:34" s="9" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="B2" s="33" t="s">
-        <v>54</v>
-      </c>
-      <c r="C2" s="34"/>
-      <c r="D2" s="35"/>
+    <row r="2" spans="1:34" s="9" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" s="26"/>
+      <c r="D2" s="27"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -1817,63 +1803,63 @@
       <c r="R2" s="2"/>
       <c r="S2" s="2"/>
       <c r="T2" s="2"/>
-      <c r="U2" s="21">
+      <c r="U2" s="28">
         <v>1</v>
       </c>
-      <c r="V2" s="22"/>
-      <c r="W2" s="22"/>
-      <c r="X2" s="22"/>
-      <c r="Y2" s="22"/>
-      <c r="Z2" s="22"/>
-      <c r="AA2" s="23"/>
-      <c r="AB2" s="31">
+      <c r="V2" s="29"/>
+      <c r="W2" s="29"/>
+      <c r="X2" s="29"/>
+      <c r="Y2" s="29"/>
+      <c r="Z2" s="29"/>
+      <c r="AA2" s="30"/>
+      <c r="AB2" s="20">
         <v>2</v>
       </c>
-      <c r="AC2" s="31"/>
-      <c r="AD2" s="31"/>
-      <c r="AE2" s="31"/>
-      <c r="AF2" s="31"/>
-      <c r="AG2" s="31"/>
-      <c r="AH2" s="31"/>
-    </row>
-    <row r="3" spans="1:34" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="16" t="s">
+      <c r="AC2" s="20"/>
+      <c r="AD2" s="20"/>
+      <c r="AE2" s="20"/>
+      <c r="AF2" s="20"/>
+      <c r="AG2" s="20"/>
+      <c r="AH2" s="20"/>
+    </row>
+    <row r="3" spans="1:34" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="C3" s="28"/>
-      <c r="D3" s="29"/>
+      <c r="B3" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3" s="22"/>
+      <c r="D3" s="23"/>
       <c r="T3" s="2"/>
-      <c r="U3" s="27" t="s">
-        <v>71</v>
-      </c>
-      <c r="V3" s="28"/>
-      <c r="W3" s="28"/>
-      <c r="X3" s="28"/>
-      <c r="Y3" s="28"/>
-      <c r="Z3" s="28"/>
-      <c r="AA3" s="29"/>
-      <c r="AB3" s="32" t="s">
-        <v>72</v>
-      </c>
-      <c r="AC3" s="32"/>
-      <c r="AD3" s="32"/>
-      <c r="AE3" s="32"/>
-      <c r="AF3" s="32"/>
-      <c r="AG3" s="32"/>
-      <c r="AH3" s="32"/>
-    </row>
-    <row r="4" spans="1:34" s="3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="17" t="s">
+      <c r="U3" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="V3" s="22"/>
+      <c r="W3" s="22"/>
+      <c r="X3" s="22"/>
+      <c r="Y3" s="22"/>
+      <c r="Z3" s="22"/>
+      <c r="AA3" s="23"/>
+      <c r="AB3" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="AC3" s="24"/>
+      <c r="AD3" s="24"/>
+      <c r="AE3" s="24"/>
+      <c r="AF3" s="24"/>
+      <c r="AG3" s="24"/>
+      <c r="AH3" s="24"/>
+    </row>
+    <row r="4" spans="1:34" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="27" t="s">
-        <v>62</v>
-      </c>
-      <c r="C4" s="28"/>
-      <c r="D4" s="29"/>
+      <c r="B4" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="C4" s="22"/>
+      <c r="D4" s="23"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
@@ -1890,34 +1876,34 @@
       <c r="R4" s="2"/>
       <c r="S4" s="2"/>
       <c r="T4" s="2"/>
-      <c r="U4" s="27" t="s">
-        <v>73</v>
-      </c>
-      <c r="V4" s="28"/>
-      <c r="W4" s="28"/>
-      <c r="X4" s="28"/>
-      <c r="Y4" s="28"/>
-      <c r="Z4" s="28"/>
-      <c r="AA4" s="29"/>
-      <c r="AB4" s="27" t="s">
-        <v>74</v>
-      </c>
-      <c r="AC4" s="28"/>
-      <c r="AD4" s="28"/>
-      <c r="AE4" s="28"/>
-      <c r="AF4" s="28"/>
-      <c r="AG4" s="28"/>
-      <c r="AH4" s="29"/>
-    </row>
-    <row r="5" spans="1:34" s="3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="B5" s="24" t="s">
-        <v>59</v>
-      </c>
-      <c r="C5" s="25"/>
-      <c r="D5" s="26"/>
+      <c r="U4" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="V4" s="22"/>
+      <c r="W4" s="22"/>
+      <c r="X4" s="22"/>
+      <c r="Y4" s="22"/>
+      <c r="Z4" s="22"/>
+      <c r="AA4" s="23"/>
+      <c r="AB4" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="AC4" s="22"/>
+      <c r="AD4" s="22"/>
+      <c r="AE4" s="22"/>
+      <c r="AF4" s="22"/>
+      <c r="AG4" s="22"/>
+      <c r="AH4" s="23"/>
+    </row>
+    <row r="5" spans="1:34" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="B5" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="C5" s="32"/>
+      <c r="D5" s="33"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
@@ -1934,229 +1920,229 @@
       <c r="R5" s="2"/>
       <c r="S5" s="2"/>
       <c r="T5" s="2"/>
-      <c r="U5" s="21" t="s">
-        <v>75</v>
-      </c>
-      <c r="V5" s="22"/>
-      <c r="W5" s="22"/>
-      <c r="X5" s="22"/>
-      <c r="Y5" s="22"/>
-      <c r="Z5" s="22"/>
-      <c r="AA5" s="23"/>
-      <c r="AB5" s="21" t="s">
-        <v>76</v>
-      </c>
-      <c r="AC5" s="22"/>
-      <c r="AD5" s="22"/>
-      <c r="AE5" s="22"/>
-      <c r="AF5" s="22"/>
-      <c r="AG5" s="22"/>
-      <c r="AH5" s="23"/>
-    </row>
-    <row r="6" spans="1:34" ht="44.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="16" t="s">
+      <c r="U5" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="V5" s="29"/>
+      <c r="W5" s="29"/>
+      <c r="X5" s="29"/>
+      <c r="Y5" s="29"/>
+      <c r="Z5" s="29"/>
+      <c r="AA5" s="30"/>
+      <c r="AB5" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="AC5" s="29"/>
+      <c r="AD5" s="29"/>
+      <c r="AE5" s="29"/>
+      <c r="AF5" s="29"/>
+      <c r="AG5" s="29"/>
+      <c r="AH5" s="30"/>
+    </row>
+    <row r="6" spans="1:34" ht="44.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="24" t="s">
-        <v>41</v>
-      </c>
-      <c r="C6" s="25"/>
-      <c r="D6" s="26"/>
+      <c r="B6" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" s="32"/>
+      <c r="D6" s="33"/>
       <c r="T6" s="2"/>
-      <c r="U6" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="V6" s="28"/>
-      <c r="W6" s="28"/>
-      <c r="X6" s="28"/>
-      <c r="Y6" s="28"/>
-      <c r="Z6" s="28"/>
-      <c r="AA6" s="29"/>
-      <c r="AB6" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC6" s="28"/>
-      <c r="AD6" s="28"/>
-      <c r="AE6" s="28"/>
-      <c r="AF6" s="28"/>
-      <c r="AG6" s="28"/>
-      <c r="AH6" s="29"/>
-    </row>
-    <row r="7" spans="1:34" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="U6" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="V6" s="22"/>
+      <c r="W6" s="22"/>
+      <c r="X6" s="22"/>
+      <c r="Y6" s="22"/>
+      <c r="Z6" s="22"/>
+      <c r="AA6" s="23"/>
+      <c r="AB6" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC6" s="22"/>
+      <c r="AD6" s="22"/>
+      <c r="AE6" s="22"/>
+      <c r="AF6" s="22"/>
+      <c r="AG6" s="22"/>
+      <c r="AH6" s="23"/>
+    </row>
+    <row r="7" spans="1:34" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
-      <c r="C7" s="12"/>
+      <c r="C7" s="5"/>
       <c r="D7" s="5"/>
-      <c r="J7" s="30" t="s">
+      <c r="J7" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="K7" s="19"/>
+      <c r="L7" s="19"/>
+      <c r="M7" s="19"/>
+      <c r="N7" s="19"/>
+      <c r="O7" s="19"/>
+      <c r="P7" s="19"/>
+      <c r="Q7" s="19"/>
+      <c r="R7" s="19"/>
+      <c r="S7" s="19"/>
+      <c r="U7" s="15">
+        <v>1</v>
+      </c>
+      <c r="V7" s="15">
+        <v>2</v>
+      </c>
+      <c r="W7" s="15">
+        <v>3</v>
+      </c>
+      <c r="X7" s="15">
+        <v>4</v>
+      </c>
+      <c r="Y7" s="15">
+        <v>5</v>
+      </c>
+      <c r="Z7" s="15">
+        <v>6</v>
+      </c>
+      <c r="AA7" s="15">
+        <v>7</v>
+      </c>
+      <c r="AB7" s="15">
+        <v>1</v>
+      </c>
+      <c r="AC7" s="15">
+        <v>2</v>
+      </c>
+      <c r="AD7" s="15">
+        <v>3</v>
+      </c>
+      <c r="AE7" s="15">
+        <v>4</v>
+      </c>
+      <c r="AF7" s="15">
+        <v>5</v>
+      </c>
+      <c r="AG7" s="15">
+        <v>6</v>
+      </c>
+      <c r="AH7" s="15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:34" s="3" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="I8" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="J8" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="K8" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="L8" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="M8" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="N8" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="O8" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="P8" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="K7" s="30"/>
-      <c r="L7" s="30"/>
-      <c r="M7" s="30"/>
-      <c r="N7" s="30"/>
-      <c r="O7" s="30"/>
-      <c r="P7" s="30"/>
-      <c r="Q7" s="30"/>
-      <c r="R7" s="30"/>
-      <c r="S7" s="30"/>
-      <c r="U7" s="18">
-        <v>1</v>
-      </c>
-      <c r="V7" s="18">
-        <v>2</v>
-      </c>
-      <c r="W7" s="18">
-        <v>3</v>
-      </c>
-      <c r="X7" s="18">
-        <v>4</v>
-      </c>
-      <c r="Y7" s="18">
-        <v>5</v>
-      </c>
-      <c r="Z7" s="18">
-        <v>6</v>
-      </c>
-      <c r="AA7" s="18">
+      <c r="Q8" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="R8" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="S8" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="T8" s="16"/>
+      <c r="U8" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="AB7" s="18">
-        <v>1</v>
-      </c>
-      <c r="AC7" s="18">
-        <v>2</v>
-      </c>
-      <c r="AD7" s="18">
-        <v>3</v>
-      </c>
-      <c r="AE7" s="18">
-        <v>4</v>
-      </c>
-      <c r="AF7" s="18">
-        <v>5</v>
-      </c>
-      <c r="AG7" s="18">
-        <v>6</v>
-      </c>
-      <c r="AH7" s="18">
+      <c r="V8" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="W8" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="X8" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y8" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z8" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA8" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB8" s="12" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="8" spans="1:34" s="3" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="D8" s="14" t="s">
+      <c r="AC8" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD8" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="14" t="s">
+      <c r="AE8" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="14" t="s">
+      <c r="AF8" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="G8" s="14" t="s">
+      <c r="AG8" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="H8" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="I8" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="J8" s="20" t="s">
-        <v>84</v>
-      </c>
-      <c r="K8" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="L8" s="20" t="s">
-        <v>86</v>
-      </c>
-      <c r="M8" s="20" t="s">
-        <v>87</v>
-      </c>
-      <c r="N8" s="20" t="s">
-        <v>88</v>
-      </c>
-      <c r="O8" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="P8" s="20" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q8" s="20" t="s">
-        <v>91</v>
-      </c>
-      <c r="R8" s="20" t="s">
-        <v>92</v>
-      </c>
-      <c r="S8" s="20" t="s">
-        <v>93</v>
-      </c>
-      <c r="T8" s="19"/>
-      <c r="U8" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="V8" s="14" t="s">
+      <c r="AH8" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="W8" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="X8" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="Y8" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z8" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="AA8" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="AB8" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="AC8" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="AD8" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="AE8" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="AF8" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="AG8" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="AH8" s="14" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="9" spans="1:34" ht="15.75" x14ac:dyDescent="0.4">
+    </row>
+    <row r="9" spans="1:34" ht="15" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="4">
         <v>1</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="4" t="s">
         <v>5</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>40</v>
+        <v>91</v>
       </c>
       <c r="F9" s="4">
         <v>50</v>
@@ -2164,8 +2150,8 @@
       <c r="G9" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H9" s="4">
-        <v>9999</v>
+      <c r="H9" s="4" t="s">
+        <v>87</v>
       </c>
       <c r="I9" s="4" t="s">
         <v>30</v>
@@ -2182,22 +2168,22 @@
       <c r="M9" s="4">
         <v>1</v>
       </c>
-      <c r="N9" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="O9" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="P9" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q9" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="R9" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="S9" s="13" t="s">
+      <c r="N9" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="O9" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="P9" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q9" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="R9" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="S9" s="4" t="s">
         <v>5</v>
       </c>
       <c r="T9" s="4" t="s">
@@ -2246,19 +2232,19 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:34" ht="15.75" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:34" ht="15" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="4">
         <v>2</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="4" t="s">
         <v>5</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>12</v>
+        <v>91</v>
       </c>
       <c r="F10" s="4">
         <v>50</v>
@@ -2266,8 +2252,8 @@
       <c r="G10" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H10" s="4">
-        <v>9999</v>
+      <c r="H10" s="4" t="s">
+        <v>87</v>
       </c>
       <c r="I10" s="4" t="s">
         <v>30</v>
@@ -2284,22 +2270,22 @@
       <c r="M10" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="N10" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="O10" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="P10" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q10" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="R10" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="S10" s="13" t="s">
+      <c r="N10" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="O10" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="P10" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q10" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="R10" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="S10" s="4" t="s">
         <v>5</v>
       </c>
       <c r="T10" s="4" t="s">
@@ -2348,12 +2334,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:34" ht="42.75" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:34" ht="40.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="4">
         <v>3</v>
       </c>
-      <c r="B11" s="36" t="s">
-        <v>65</v>
+      <c r="B11" s="18" t="s">
+        <v>58</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="4" t="s">
@@ -2386,38 +2372,38 @@
       <c r="M11" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="N11" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="O11" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="P11" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q11" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="R11" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="S11" s="13" t="s">
+      <c r="N11" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="O11" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="P11" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q11" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="R11" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="S11" s="4" t="s">
         <v>5</v>
       </c>
       <c r="T11" s="4" t="s">
         <v>14</v>
       </c>
       <c r="U11" s="4" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="V11" s="4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="W11" s="4" t="s">
         <v>15</v>
       </c>
       <c r="X11" s="4" t="s">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="Y11" s="4">
         <v>8</v>
@@ -2429,7 +2415,7 @@
         <v>5</v>
       </c>
       <c r="AB11" s="4" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="AC11" s="4" t="s">
         <v>5</v>
@@ -2438,7 +2424,7 @@
         <v>15</v>
       </c>
       <c r="AE11" s="4" t="s">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="AF11" s="4">
         <v>8</v>
@@ -2450,12 +2436,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:34" ht="15.75" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:34" ht="15" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="4">
         <v>4</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="4" t="s">
@@ -2488,29 +2474,29 @@
       <c r="M12" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="N12" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="O12" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="P12" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q12" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="R12" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="S12" s="13" t="s">
+      <c r="N12" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="O12" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="P12" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q12" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="R12" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="S12" s="4" t="s">
         <v>5</v>
       </c>
       <c r="T12" s="4" t="s">
         <v>14</v>
       </c>
       <c r="U12" s="4" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="V12" s="4" t="s">
         <v>5</v>
@@ -2518,8 +2504,8 @@
       <c r="W12" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="X12" s="13" t="s">
-        <v>56</v>
+      <c r="X12" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="Y12" s="4">
         <v>200</v>
@@ -2531,7 +2517,7 @@
         <v>5</v>
       </c>
       <c r="AB12" s="4" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="AC12" s="4" t="s">
         <v>5</v>
@@ -2539,8 +2525,8 @@
       <c r="AD12" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="AE12" s="13" t="s">
-        <v>56</v>
+      <c r="AE12" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="AF12" s="4">
         <v>200</v>
@@ -2552,12 +2538,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:34" ht="15.75" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:34" ht="15" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="4">
         <v>5</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="4" t="s">
@@ -2590,29 +2576,29 @@
       <c r="M13" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="N13" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="O13" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="P13" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q13" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="R13" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="S13" s="13" t="s">
+      <c r="N13" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="O13" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="P13" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q13" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="R13" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="S13" s="4" t="s">
         <v>5</v>
       </c>
       <c r="T13" s="4" t="s">
         <v>14</v>
       </c>
       <c r="U13" s="4" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="V13" s="4" t="s">
         <v>5</v>
@@ -2621,7 +2607,7 @@
         <v>30</v>
       </c>
       <c r="X13" s="4" t="s">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="Y13" s="4">
         <v>200</v>
@@ -2633,7 +2619,7 @@
         <v>5</v>
       </c>
       <c r="AB13" s="4" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AC13" s="4" t="s">
         <v>5</v>
@@ -2641,8 +2627,8 @@
       <c r="AD13" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="AE13" s="13" t="s">
-        <v>56</v>
+      <c r="AE13" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="AF13" s="4">
         <v>200</v>
@@ -2654,7 +2640,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:34" ht="15.75" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:34" ht="15" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="4">
         <v>6</v>
       </c>
@@ -2678,7 +2664,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="J14" s="4" t="s">
         <v>5</v>
@@ -2692,22 +2678,22 @@
       <c r="M14" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="N14" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="O14" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="P14" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q14" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="R14" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="S14" s="13" t="s">
+      <c r="N14" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="O14" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="P14" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q14" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="R14" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="S14" s="4" t="s">
         <v>5</v>
       </c>
       <c r="T14" s="4" t="s">
@@ -2723,16 +2709,16 @@
         <v>30</v>
       </c>
       <c r="X14" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="Y14" s="4">
-        <v>1</v>
+        <v>19</v>
+      </c>
+      <c r="Y14" s="4" t="s">
+        <v>89</v>
       </c>
       <c r="Z14" s="4" t="s">
         <v>13</v>
       </c>
       <c r="AA14" s="4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="AB14" s="4" t="s">
         <v>17</v>
@@ -2744,19 +2730,19 @@
         <v>5</v>
       </c>
       <c r="AE14" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="AF14" s="4">
-        <v>1</v>
+        <v>19</v>
+      </c>
+      <c r="AF14" s="4" t="s">
+        <v>89</v>
       </c>
       <c r="AG14" s="4" t="s">
         <v>13</v>
       </c>
       <c r="AH14" s="4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="15" spans="1:34" ht="15.75" x14ac:dyDescent="0.4">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="1:34" ht="15" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="4">
         <v>7</v>
       </c>
@@ -2794,22 +2780,22 @@
       <c r="M15" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="N15" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="O15" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="P15" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q15" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="R15" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="S15" s="13" t="s">
+      <c r="N15" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="O15" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="P15" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q15" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="R15" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="S15" s="4" t="s">
         <v>5</v>
       </c>
       <c r="T15" s="4" t="s">
@@ -2825,10 +2811,10 @@
         <v>30</v>
       </c>
       <c r="X15" s="4" t="s">
-        <v>55</v>
+        <v>19</v>
       </c>
       <c r="Y15" s="4" t="s">
-        <v>45</v>
+        <v>90</v>
       </c>
       <c r="Z15" s="4" t="s">
         <v>13</v>
@@ -2846,10 +2832,10 @@
         <v>5</v>
       </c>
       <c r="AE15" s="4" t="s">
-        <v>55</v>
+        <v>19</v>
       </c>
       <c r="AF15" s="4" t="s">
-        <v>45</v>
+        <v>90</v>
       </c>
       <c r="AG15" s="4" t="s">
         <v>13</v>
@@ -2858,7 +2844,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:34" ht="15.75" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:34" ht="15" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="4">
         <v>8</v>
       </c>
@@ -2896,22 +2882,22 @@
       <c r="M16" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="N16" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="O16" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="P16" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q16" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="R16" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="S16" s="13" t="s">
+      <c r="N16" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="O16" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="P16" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q16" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="R16" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="S16" s="4" t="s">
         <v>5</v>
       </c>
       <c r="T16" s="4" t="s">
@@ -2960,7 +2946,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:34" ht="15.75" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:34" ht="15" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="4">
         <v>9</v>
       </c>
@@ -2998,22 +2984,22 @@
       <c r="M17" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="N17" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="O17" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="P17" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q17" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="R17" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="S17" s="13" t="s">
+      <c r="N17" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="O17" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="P17" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q17" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="R17" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="S17" s="4" t="s">
         <v>5</v>
       </c>
       <c r="T17" s="4" t="s">
@@ -3062,7 +3048,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:34" ht="15.75" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:34" ht="15" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="4">
         <v>10</v>
       </c>
@@ -3100,22 +3086,22 @@
       <c r="M18" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="N18" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="O18" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="P18" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q18" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="R18" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="S18" s="13" t="s">
+      <c r="N18" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="O18" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="P18" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q18" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="R18" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="S18" s="4" t="s">
         <v>5</v>
       </c>
       <c r="T18" s="4" t="s">
@@ -3131,7 +3117,7 @@
         <v>30</v>
       </c>
       <c r="X18" s="4" t="s">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="Y18" s="4">
         <v>100</v>
@@ -3152,7 +3138,7 @@
         <v>5</v>
       </c>
       <c r="AE18" s="4" t="s">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="AF18" s="4">
         <v>100</v>
@@ -3164,7 +3150,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:34" ht="15.75" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:34" ht="15" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="4">
         <v>11</v>
       </c>
@@ -3184,8 +3170,8 @@
       <c r="G19" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H19" s="6">
-        <v>2958465</v>
+      <c r="H19" s="6" t="s">
+        <v>88</v>
       </c>
       <c r="I19" s="4" t="s">
         <v>30</v>
@@ -3202,22 +3188,22 @@
       <c r="M19" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="N19" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="O19" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="P19" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q19" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="R19" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="S19" s="13" t="s">
+      <c r="N19" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="O19" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="P19" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q19" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="R19" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="S19" s="4" t="s">
         <v>5</v>
       </c>
       <c r="T19" s="4" t="s">
@@ -3233,7 +3219,7 @@
         <v>30</v>
       </c>
       <c r="X19" s="4" t="s">
-        <v>57</v>
+        <v>29</v>
       </c>
       <c r="Y19" s="4" t="s">
         <v>5</v>
@@ -3254,7 +3240,7 @@
         <v>5</v>
       </c>
       <c r="AE19" s="4" t="s">
-        <v>57</v>
+        <v>29</v>
       </c>
       <c r="AF19" s="4" t="s">
         <v>5</v>
@@ -3266,7 +3252,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:34" ht="15.75" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:34" ht="15" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="4">
         <v>12</v>
       </c>
@@ -3304,22 +3290,22 @@
       <c r="M20" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="N20" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="O20" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="P20" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q20" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="R20" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="S20" s="13" t="s">
+      <c r="N20" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="O20" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="P20" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q20" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="R20" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="S20" s="4" t="s">
         <v>5</v>
       </c>
       <c r="T20" s="4" t="s">
@@ -3335,7 +3321,7 @@
         <v>30</v>
       </c>
       <c r="X20" s="4" t="s">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="Y20" s="4">
         <v>100</v>
@@ -3356,7 +3342,7 @@
         <v>5</v>
       </c>
       <c r="AE20" s="4" t="s">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="AF20" s="4">
         <v>100</v>
@@ -3368,7 +3354,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:34" ht="15.75" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:34" ht="15" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="4">
         <v>13</v>
       </c>
@@ -3388,8 +3374,8 @@
       <c r="G21" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H21" s="6">
-        <v>2958465</v>
+      <c r="H21" s="6" t="s">
+        <v>88</v>
       </c>
       <c r="I21" s="4" t="s">
         <v>30</v>
@@ -3406,22 +3392,22 @@
       <c r="M21" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="N21" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="O21" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="P21" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q21" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="R21" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="S21" s="13" t="s">
+      <c r="N21" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="O21" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="P21" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q21" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="R21" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="S21" s="4" t="s">
         <v>5</v>
       </c>
       <c r="T21" s="4" t="s">
@@ -3437,7 +3423,7 @@
         <v>30</v>
       </c>
       <c r="X21" s="4" t="s">
-        <v>57</v>
+        <v>29</v>
       </c>
       <c r="Y21" s="4" t="s">
         <v>5</v>
@@ -3458,7 +3444,7 @@
         <v>5</v>
       </c>
       <c r="AE21" s="4" t="s">
-        <v>57</v>
+        <v>29</v>
       </c>
       <c r="AF21" s="4" t="s">
         <v>5</v>
@@ -3470,12 +3456,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:34" ht="15.75" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:34" ht="15" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="4">
         <v>14</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="4" t="s">
@@ -3508,22 +3494,22 @@
       <c r="M22" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="N22" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="O22" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="P22" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q22" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="R22" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="S22" s="13" t="s">
+      <c r="N22" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="O22" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="P22" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q22" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="R22" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="S22" s="4" t="s">
         <v>5</v>
       </c>
       <c r="T22" s="4" t="s">
@@ -3572,12 +3558,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:34" ht="15.75" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:34" ht="15" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="4">
         <v>15</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="4" t="s">
@@ -3610,22 +3596,22 @@
       <c r="M23" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="N23" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="O23" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="P23" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q23" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="R23" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="S23" s="13" t="s">
+      <c r="N23" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="O23" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="P23" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q23" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="R23" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="S23" s="4" t="s">
         <v>5</v>
       </c>
       <c r="T23" s="4" t="s">
@@ -3674,12 +3660,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:34" ht="15.75" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:34" ht="15" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="4">
         <v>16</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="4" t="s">
@@ -3712,22 +3698,22 @@
       <c r="M24" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="N24" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="O24" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="P24" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q24" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="R24" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="S24" s="13" t="s">
+      <c r="N24" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="O24" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="P24" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q24" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="R24" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="S24" s="4" t="s">
         <v>5</v>
       </c>
       <c r="T24" s="4" t="s">
@@ -3776,7 +3762,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:34" ht="15.75" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:34" ht="15" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="4">
         <v>17</v>
       </c>
@@ -3814,22 +3800,22 @@
       <c r="M25" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="N25" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="O25" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="P25" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q25" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="R25" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="S25" s="13" t="s">
+      <c r="N25" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="O25" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="P25" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q25" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="R25" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="S25" s="4" t="s">
         <v>5</v>
       </c>
       <c r="T25" s="4" t="s">
@@ -3878,7 +3864,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:34" ht="15.75" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:34" ht="15" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="4">
         <v>18</v>
       </c>
@@ -3886,7 +3872,7 @@
         <v>37</v>
       </c>
       <c r="C26" s="1"/>
-      <c r="D26" s="13" t="s">
+      <c r="D26" s="4" t="s">
         <v>5</v>
       </c>
       <c r="E26" s="4" t="s">
@@ -3898,8 +3884,8 @@
       <c r="G26" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H26" s="6">
-        <v>2958465</v>
+      <c r="H26" s="6" t="s">
+        <v>88</v>
       </c>
       <c r="I26" s="4" t="s">
         <v>30</v>
@@ -3916,22 +3902,22 @@
       <c r="M26" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="N26" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="O26" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="P26" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q26" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="R26" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="S26" s="13" t="s">
+      <c r="N26" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="O26" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="P26" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q26" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="R26" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="S26" s="4" t="s">
         <v>5</v>
       </c>
       <c r="T26" s="4" t="s">
@@ -3980,7 +3966,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="27" spans="1:34" ht="15.75" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:34" ht="15" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="4">
         <v>19</v>
       </c>
@@ -4001,7 +3987,7 @@
         <v>13</v>
       </c>
       <c r="H27" s="6">
-        <v>2958465</v>
+        <v>401768</v>
       </c>
       <c r="I27" s="4" t="s">
         <v>30</v>
@@ -4018,22 +4004,22 @@
       <c r="M27" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="N27" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="O27" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="P27" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q27" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="R27" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="S27" s="13" t="s">
+      <c r="N27" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="O27" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="P27" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q27" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="R27" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="S27" s="4" t="s">
         <v>5</v>
       </c>
       <c r="T27" s="4" t="s">
@@ -4114,8 +4100,8 @@
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="W9:W27" xr:uid="{26A8F78F-F140-4A32-8F07-0044033984F2}">
       <formula1>"-,〇"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AE9:AE27 X9:X27" xr:uid="{3637A884-3A97-4D8C-B7FA-53DC8603BC42}">
-      <formula1>"str,int,datetime"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X9:X27 AE9:AE27" xr:uid="{3637A884-3A97-4D8C-B7FA-53DC8603BC42}">
+      <formula1>"varchar,numeric,timestamp"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B5:D5" xr:uid="{97016AE1-68B3-4EDA-9D17-175AEBDC81C3}">
       <formula1>"xlsx,csv"</formula1>

--- a/services/migration_tool/functions/define_src_data/polers_test/移行定義FMT.xlsx
+++ b/services/migration_tool/functions/define_src_data/polers_test/移行定義FMT.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\takujiru\MyProject\mono-repo\services\migration_tool\functions\define_src_data\polers_test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\4569581_bizsys\MyProject\mono-repo\services\migration_tool\functions\define_src_data\polers_test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E65AA4C5-014D-4A2C-B0BF-AC81CB95522A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1853BD75-A9F5-47A2-897F-144438183541}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5820" yWindow="1280" windowWidth="28140" windowHeight="16950" activeTab="1" xr2:uid="{83C05664-4C1D-4528-99DA-491EA85F2A77}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="36980" windowHeight="21820" activeTab="1" xr2:uid="{83C05664-4C1D-4528-99DA-491EA85F2A77}"/>
   </bookViews>
   <sheets>
     <sheet name="一覧" sheetId="3" r:id="rId1"/>
-    <sheet name="1_Aマスタ" sheetId="2" r:id="rId2"/>
+    <sheet name="001_Aマスタ" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -699,7 +699,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -756,6 +756,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1740,7 +1743,7 @@
   <dimension ref="A1:AH27"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="U10" sqref="U10"/>
+      <selection activeCell="Y33" sqref="Y33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="13.5" outlineLevelCol="1" x14ac:dyDescent="0.55000000000000004"/>
@@ -1755,17 +1758,20 @@
     <col min="9" max="9" width="9.83203125" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="19" width="7" style="2" customWidth="1" outlineLevel="1"/>
     <col min="20" max="20" width="4.33203125" style="3" customWidth="1"/>
-    <col min="21" max="22" width="13.75" style="2" customWidth="1"/>
-    <col min="23" max="23" width="4.5" style="2" customWidth="1"/>
-    <col min="24" max="24" width="12" style="2" customWidth="1"/>
-    <col min="25" max="25" width="6" style="2" customWidth="1"/>
-    <col min="26" max="26" width="5.08203125" style="2" customWidth="1"/>
-    <col min="27" max="27" width="9.83203125" style="2" customWidth="1"/>
-    <col min="28" max="28" width="13.75" style="2" customWidth="1"/>
-    <col min="29" max="30" width="5.58203125" style="2" customWidth="1"/>
-    <col min="31" max="31" width="11.4140625" style="2" customWidth="1"/>
-    <col min="32" max="33" width="6" style="2" customWidth="1"/>
-    <col min="34" max="34" width="9.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="8.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="7.58203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="10.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="5.4140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="5.9140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="10" style="2" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="8.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="13.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="5" style="2" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="10.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="5.4140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="5.9140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="9.5" style="2" bestFit="1" customWidth="1"/>
     <col min="35" max="16384" width="8.58203125" style="2"/>
   </cols>
   <sheetData>
@@ -1782,11 +1788,11 @@
       <c r="A2" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="C2" s="26"/>
-      <c r="D2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="28"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -1803,63 +1809,63 @@
       <c r="R2" s="2"/>
       <c r="S2" s="2"/>
       <c r="T2" s="2"/>
-      <c r="U2" s="28">
+      <c r="U2" s="29">
         <v>1</v>
       </c>
-      <c r="V2" s="29"/>
-      <c r="W2" s="29"/>
-      <c r="X2" s="29"/>
-      <c r="Y2" s="29"/>
-      <c r="Z2" s="29"/>
-      <c r="AA2" s="30"/>
-      <c r="AB2" s="20">
+      <c r="V2" s="30"/>
+      <c r="W2" s="30"/>
+      <c r="X2" s="30"/>
+      <c r="Y2" s="30"/>
+      <c r="Z2" s="30"/>
+      <c r="AA2" s="31"/>
+      <c r="AB2" s="21">
         <v>2</v>
       </c>
-      <c r="AC2" s="20"/>
-      <c r="AD2" s="20"/>
-      <c r="AE2" s="20"/>
-      <c r="AF2" s="20"/>
-      <c r="AG2" s="20"/>
-      <c r="AH2" s="20"/>
+      <c r="AC2" s="21"/>
+      <c r="AD2" s="21"/>
+      <c r="AE2" s="21"/>
+      <c r="AF2" s="21"/>
+      <c r="AG2" s="21"/>
+      <c r="AH2" s="21"/>
     </row>
     <row r="3" spans="1:34" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="C3" s="22"/>
-      <c r="D3" s="23"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="24"/>
       <c r="T3" s="2"/>
-      <c r="U3" s="21" t="s">
+      <c r="U3" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="V3" s="22"/>
-      <c r="W3" s="22"/>
-      <c r="X3" s="22"/>
-      <c r="Y3" s="22"/>
-      <c r="Z3" s="22"/>
-      <c r="AA3" s="23"/>
-      <c r="AB3" s="24" t="s">
+      <c r="V3" s="23"/>
+      <c r="W3" s="23"/>
+      <c r="X3" s="23"/>
+      <c r="Y3" s="23"/>
+      <c r="Z3" s="23"/>
+      <c r="AA3" s="24"/>
+      <c r="AB3" s="25" t="s">
         <v>65</v>
       </c>
-      <c r="AC3" s="24"/>
-      <c r="AD3" s="24"/>
-      <c r="AE3" s="24"/>
-      <c r="AF3" s="24"/>
-      <c r="AG3" s="24"/>
-      <c r="AH3" s="24"/>
+      <c r="AC3" s="25"/>
+      <c r="AD3" s="25"/>
+      <c r="AE3" s="25"/>
+      <c r="AF3" s="25"/>
+      <c r="AG3" s="25"/>
+      <c r="AH3" s="25"/>
     </row>
     <row r="4" spans="1:34" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="C4" s="22"/>
-      <c r="D4" s="23"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="24"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
@@ -1876,34 +1882,34 @@
       <c r="R4" s="2"/>
       <c r="S4" s="2"/>
       <c r="T4" s="2"/>
-      <c r="U4" s="21" t="s">
+      <c r="U4" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="V4" s="22"/>
-      <c r="W4" s="22"/>
-      <c r="X4" s="22"/>
-      <c r="Y4" s="22"/>
-      <c r="Z4" s="22"/>
-      <c r="AA4" s="23"/>
-      <c r="AB4" s="21" t="s">
+      <c r="V4" s="23"/>
+      <c r="W4" s="23"/>
+      <c r="X4" s="23"/>
+      <c r="Y4" s="23"/>
+      <c r="Z4" s="23"/>
+      <c r="AA4" s="24"/>
+      <c r="AB4" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="AC4" s="22"/>
-      <c r="AD4" s="22"/>
-      <c r="AE4" s="22"/>
-      <c r="AF4" s="22"/>
-      <c r="AG4" s="22"/>
-      <c r="AH4" s="23"/>
+      <c r="AC4" s="23"/>
+      <c r="AD4" s="23"/>
+      <c r="AE4" s="23"/>
+      <c r="AF4" s="23"/>
+      <c r="AG4" s="23"/>
+      <c r="AH4" s="24"/>
     </row>
     <row r="5" spans="1:34" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="B5" s="31" t="s">
+      <c r="B5" s="32" t="s">
         <v>52</v>
       </c>
-      <c r="C5" s="32"/>
-      <c r="D5" s="33"/>
+      <c r="C5" s="33"/>
+      <c r="D5" s="34"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
@@ -1920,71 +1926,71 @@
       <c r="R5" s="2"/>
       <c r="S5" s="2"/>
       <c r="T5" s="2"/>
-      <c r="U5" s="28" t="s">
+      <c r="U5" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="V5" s="29"/>
-      <c r="W5" s="29"/>
-      <c r="X5" s="29"/>
-      <c r="Y5" s="29"/>
-      <c r="Z5" s="29"/>
-      <c r="AA5" s="30"/>
-      <c r="AB5" s="28" t="s">
+      <c r="V5" s="30"/>
+      <c r="W5" s="30"/>
+      <c r="X5" s="30"/>
+      <c r="Y5" s="30"/>
+      <c r="Z5" s="30"/>
+      <c r="AA5" s="31"/>
+      <c r="AB5" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="AC5" s="29"/>
-      <c r="AD5" s="29"/>
-      <c r="AE5" s="29"/>
-      <c r="AF5" s="29"/>
-      <c r="AG5" s="29"/>
-      <c r="AH5" s="30"/>
+      <c r="AC5" s="30"/>
+      <c r="AD5" s="30"/>
+      <c r="AE5" s="30"/>
+      <c r="AF5" s="30"/>
+      <c r="AG5" s="30"/>
+      <c r="AH5" s="31"/>
     </row>
     <row r="6" spans="1:34" ht="44.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="31" t="s">
+      <c r="B6" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="C6" s="32"/>
-      <c r="D6" s="33"/>
+      <c r="C6" s="33"/>
+      <c r="D6" s="34"/>
       <c r="T6" s="2"/>
-      <c r="U6" s="21" t="s">
-        <v>5</v>
-      </c>
-      <c r="V6" s="22"/>
-      <c r="W6" s="22"/>
-      <c r="X6" s="22"/>
-      <c r="Y6" s="22"/>
-      <c r="Z6" s="22"/>
-      <c r="AA6" s="23"/>
-      <c r="AB6" s="21" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC6" s="22"/>
-      <c r="AD6" s="22"/>
-      <c r="AE6" s="22"/>
-      <c r="AF6" s="22"/>
-      <c r="AG6" s="22"/>
-      <c r="AH6" s="23"/>
+      <c r="U6" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="V6" s="23"/>
+      <c r="W6" s="23"/>
+      <c r="X6" s="23"/>
+      <c r="Y6" s="23"/>
+      <c r="Z6" s="23"/>
+      <c r="AA6" s="24"/>
+      <c r="AB6" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC6" s="23"/>
+      <c r="AD6" s="23"/>
+      <c r="AE6" s="23"/>
+      <c r="AF6" s="23"/>
+      <c r="AG6" s="23"/>
+      <c r="AH6" s="24"/>
     </row>
     <row r="7" spans="1:34" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
-      <c r="J7" s="19" t="s">
+      <c r="J7" s="20" t="s">
         <v>76</v>
       </c>
-      <c r="K7" s="19"/>
-      <c r="L7" s="19"/>
-      <c r="M7" s="19"/>
-      <c r="N7" s="19"/>
-      <c r="O7" s="19"/>
-      <c r="P7" s="19"/>
-      <c r="Q7" s="19"/>
-      <c r="R7" s="19"/>
-      <c r="S7" s="19"/>
+      <c r="K7" s="20"/>
+      <c r="L7" s="20"/>
+      <c r="M7" s="20"/>
+      <c r="N7" s="20"/>
+      <c r="O7" s="20"/>
+      <c r="P7" s="20"/>
+      <c r="Q7" s="20"/>
+      <c r="R7" s="20"/>
+      <c r="S7" s="20"/>
       <c r="U7" s="15">
         <v>1</v>
       </c>
@@ -2417,8 +2423,8 @@
       <c r="AB11" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="AC11" s="4" t="s">
-        <v>5</v>
+      <c r="AC11" s="19" t="s">
+        <v>44</v>
       </c>
       <c r="AD11" s="4" t="s">
         <v>15</v>
@@ -4093,7 +4099,7 @@
       <formula>A1="-"</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="4">
+  <dataValidations disablePrompts="1" count="4">
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="G9:G27 Z9:Z27 AG9:AG27" xr:uid="{1D79F008-1BE6-416B-AC8E-DFC07882C24B}">
       <formula1>"-,NG"</formula1>
     </dataValidation>

--- a/services/migration_tool/functions/define_src_data/polers_test/移行定義FMT.xlsx
+++ b/services/migration_tool/functions/define_src_data/polers_test/移行定義FMT.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\4569581_bizsys\MyProject\mono-repo\services\migration_tool\functions\define_src_data\polers_test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\takujiru\MyProject\mono-repo\services\migration_tool\functions\define_src_data\polers_test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1853BD75-A9F5-47A2-897F-144438183541}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{711BB50B-3B18-49E4-B402-7AFFCC36537B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="36980" windowHeight="21820" activeTab="1" xr2:uid="{83C05664-4C1D-4528-99DA-491EA85F2A77}"/>
+    <workbookView xWindow="5820" yWindow="1280" windowWidth="28140" windowHeight="16950" activeTab="2" xr2:uid="{83C05664-4C1D-4528-99DA-491EA85F2A77}"/>
   </bookViews>
   <sheets>
     <sheet name="一覧" sheetId="3" r:id="rId1"/>
     <sheet name="001_Aマスタ" sheetId="2" r:id="rId2"/>
+    <sheet name="002_Bマスタ" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="622" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1255" uniqueCount="114">
   <si>
     <t>移行先テーブル</t>
     <rPh sb="0" eb="2">
@@ -320,19 +321,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>物理名(csvの場合必須)</t>
-    <rPh sb="0" eb="3">
-      <t>ブツリメイ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ヒッス</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>システムA</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -448,70 +436,180 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>最終結果出力シート</t>
+    <t>シート1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>シート2</t>
+  </si>
+  <si>
+    <t>シート3</t>
+  </si>
+  <si>
+    <t>シート4</t>
+  </si>
+  <si>
+    <t>シート5</t>
+  </si>
+  <si>
+    <t>シート6</t>
+  </si>
+  <si>
+    <t>シート7</t>
+  </si>
+  <si>
+    <t>シート8</t>
+  </si>
+  <si>
+    <t>シート9</t>
+  </si>
+  <si>
+    <t>シート10</t>
+  </si>
+  <si>
+    <t>連番</t>
+    <rPh sb="0" eb="2">
+      <t>レンバン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>現在日</t>
+    <rPh sb="0" eb="3">
+      <t>ゲンザイビ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1,0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>15,1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>numeric</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>002</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>csv</t>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>sub_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>code</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>name_kana</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>delete_flg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>sort_key</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>description</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>version_no</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>create_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>create_date</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>update_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>update_date</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>decision_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>decision_date</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>category_code</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>term_code</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>start_date</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>end_date</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>最終結果出力シート
+ (csvの場合は一番左の設定を出力）</t>
     <rPh sb="0" eb="4">
       <t>サイシュウケッカ</t>
     </rPh>
     <rPh sb="4" eb="6">
       <t>シュツリョク</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>シート1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>シート2</t>
-  </si>
-  <si>
-    <t>シート3</t>
-  </si>
-  <si>
-    <t>シート4</t>
-  </si>
-  <si>
-    <t>シート5</t>
-  </si>
-  <si>
-    <t>シート6</t>
-  </si>
-  <si>
-    <t>シート7</t>
-  </si>
-  <si>
-    <t>シート8</t>
-  </si>
-  <si>
-    <t>シート9</t>
-  </si>
-  <si>
-    <t>シート10</t>
-  </si>
-  <si>
-    <t>連番</t>
-    <rPh sb="0" eb="2">
-      <t>レンバン</t>
+    <rPh sb="16" eb="18">
+      <t>バアイ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>現在日</t>
+    <rPh sb="19" eb="21">
+      <t>イチバン</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ヒダリ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>シュツリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>物理名</t>
     <rPh sb="0" eb="3">
-      <t>ゲンザイビ</t>
+      <t>ブツリメイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>1,0</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>15,1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>numeric</t>
+    <t>*csvの場合必須</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -699,7 +797,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -713,9 +811,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -745,9 +840,6 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -756,9 +848,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -805,12 +894,45 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="10">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -930,15 +1052,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FEABA5F0-A8D0-442A-AB1F-485CA1AA686E}" name="テーブル1" displayName="テーブル1" ref="A1:D36" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FEABA5F0-A8D0-442A-AB1F-485CA1AA686E}" name="テーブル1" displayName="テーブル1" ref="A1:D36" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
   <autoFilter ref="A1:D36" xr:uid="{FEABA5F0-A8D0-442A-AB1F-485CA1AA686E}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{A05E1CD9-56D1-4B03-8888-A1C3D3D9104E}" name="No." dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{E40F1515-CE0C-4E44-B180-F5124294DA82}" name="移行定義名" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{27A54950-5F7D-4DFB-814C-3F6DB989E174}" name="シート名" dataDxfId="2">
+    <tableColumn id="1" xr3:uid="{A05E1CD9-56D1-4B03-8888-A1C3D3D9104E}" name="No." dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{E40F1515-CE0C-4E44-B180-F5124294DA82}" name="移行定義名" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{27A54950-5F7D-4DFB-814C-3F6DB989E174}" name="シート名" dataDxfId="5">
       <calculatedColumnFormula>A2&amp;"_"&amp;B2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{A4DCCC04-D29E-4993-83D5-DA9E2FE8501B}" name="リンク" dataDxfId="1" dataCellStyle="ハイパーリンク">
+    <tableColumn id="4" xr3:uid="{A4DCCC04-D29E-4993-83D5-DA9E2FE8501B}" name="リンク" dataDxfId="4" dataCellStyle="ハイパーリンク">
       <calculatedColumnFormula>HYPERLINK("#"&amp;C2&amp;"!A1","■")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1251,480 +1373,480 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="9" style="7"/>
-    <col min="2" max="2" width="38.5" style="7" customWidth="1"/>
-    <col min="3" max="3" width="11.83203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="7"/>
+    <col min="1" max="1" width="9" style="6"/>
+    <col min="2" max="2" width="38.5" style="6" customWidth="1"/>
+    <col min="3" max="3" width="11.83203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="6" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="7">
+      <c r="A2" s="6">
         <v>1</v>
       </c>
-      <c r="B2" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="C2" s="7" t="str">
+      <c r="B2" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" s="6" t="str">
         <f>A2&amp;"_"&amp;B2</f>
         <v>1_Aマスタ</v>
       </c>
-      <c r="D2" s="11" t="str">
+      <c r="D2" s="10" t="str">
         <f>HYPERLINK("#"&amp;C2&amp;"!A1","■")</f>
         <v>■</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="7">
+      <c r="A3" s="6">
         <v>2</v>
       </c>
-      <c r="C3" s="7" t="str">
+      <c r="C3" s="6" t="str">
         <f t="shared" ref="C3:C36" si="0">A3&amp;"_"&amp;B3</f>
         <v>2_</v>
       </c>
-      <c r="D3" s="11" t="str">
+      <c r="D3" s="10" t="str">
         <f t="shared" ref="D3:D36" si="1">HYPERLINK("#"&amp;C3&amp;"!A1","■")</f>
         <v>■</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="7">
+      <c r="A4" s="6">
         <v>3</v>
       </c>
-      <c r="C4" s="7" t="str">
+      <c r="C4" s="6" t="str">
         <f t="shared" si="0"/>
         <v>3_</v>
       </c>
-      <c r="D4" s="11" t="str">
+      <c r="D4" s="10" t="str">
         <f t="shared" si="1"/>
         <v>■</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="7">
+      <c r="A5" s="6">
         <v>4</v>
       </c>
-      <c r="C5" s="7" t="str">
+      <c r="C5" s="6" t="str">
         <f t="shared" si="0"/>
         <v>4_</v>
       </c>
-      <c r="D5" s="11" t="str">
+      <c r="D5" s="10" t="str">
         <f t="shared" si="1"/>
         <v>■</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="7">
-        <v>5</v>
-      </c>
-      <c r="C6" s="7" t="str">
+      <c r="A6" s="6">
+        <v>5</v>
+      </c>
+      <c r="C6" s="6" t="str">
         <f t="shared" si="0"/>
         <v>5_</v>
       </c>
-      <c r="D6" s="11" t="str">
+      <c r="D6" s="10" t="str">
         <f t="shared" si="1"/>
         <v>■</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="7">
+      <c r="A7" s="6">
         <v>6</v>
       </c>
-      <c r="C7" s="7" t="str">
+      <c r="C7" s="6" t="str">
         <f t="shared" si="0"/>
         <v>6_</v>
       </c>
-      <c r="D7" s="11" t="str">
+      <c r="D7" s="10" t="str">
         <f t="shared" si="1"/>
         <v>■</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="7">
+      <c r="A8" s="6">
         <v>7</v>
       </c>
-      <c r="C8" s="7" t="str">
+      <c r="C8" s="6" t="str">
         <f t="shared" si="0"/>
         <v>7_</v>
       </c>
-      <c r="D8" s="11" t="str">
+      <c r="D8" s="10" t="str">
         <f t="shared" si="1"/>
         <v>■</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="7">
+      <c r="A9" s="6">
         <v>8</v>
       </c>
-      <c r="C9" s="7" t="str">
+      <c r="C9" s="6" t="str">
         <f t="shared" si="0"/>
         <v>8_</v>
       </c>
-      <c r="D9" s="11" t="str">
+      <c r="D9" s="10" t="str">
         <f t="shared" si="1"/>
         <v>■</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="7">
+      <c r="A10" s="6">
         <v>9</v>
       </c>
-      <c r="C10" s="7" t="str">
+      <c r="C10" s="6" t="str">
         <f t="shared" si="0"/>
         <v>9_</v>
       </c>
-      <c r="D10" s="11" t="str">
+      <c r="D10" s="10" t="str">
         <f t="shared" si="1"/>
         <v>■</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="7">
+      <c r="A11" s="6">
         <v>10</v>
       </c>
-      <c r="C11" s="7" t="str">
+      <c r="C11" s="6" t="str">
         <f t="shared" si="0"/>
         <v>10_</v>
       </c>
-      <c r="D11" s="11" t="str">
+      <c r="D11" s="10" t="str">
         <f t="shared" si="1"/>
         <v>■</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="7">
+      <c r="A12" s="6">
         <v>11</v>
       </c>
-      <c r="C12" s="7" t="str">
+      <c r="C12" s="6" t="str">
         <f t="shared" si="0"/>
         <v>11_</v>
       </c>
-      <c r="D12" s="11" t="str">
+      <c r="D12" s="10" t="str">
         <f t="shared" si="1"/>
         <v>■</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="7">
+      <c r="A13" s="6">
         <v>12</v>
       </c>
-      <c r="C13" s="7" t="str">
+      <c r="C13" s="6" t="str">
         <f t="shared" si="0"/>
         <v>12_</v>
       </c>
-      <c r="D13" s="11" t="str">
+      <c r="D13" s="10" t="str">
         <f t="shared" si="1"/>
         <v>■</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="7">
+      <c r="A14" s="6">
         <v>13</v>
       </c>
-      <c r="C14" s="7" t="str">
+      <c r="C14" s="6" t="str">
         <f t="shared" si="0"/>
         <v>13_</v>
       </c>
-      <c r="D14" s="11" t="str">
+      <c r="D14" s="10" t="str">
         <f t="shared" si="1"/>
         <v>■</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="7">
+      <c r="A15" s="6">
         <v>14</v>
       </c>
-      <c r="C15" s="7" t="str">
+      <c r="C15" s="6" t="str">
         <f t="shared" si="0"/>
         <v>14_</v>
       </c>
-      <c r="D15" s="11" t="str">
+      <c r="D15" s="10" t="str">
         <f t="shared" si="1"/>
         <v>■</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="7">
+      <c r="A16" s="6">
         <v>15</v>
       </c>
-      <c r="C16" s="7" t="str">
+      <c r="C16" s="6" t="str">
         <f t="shared" si="0"/>
         <v>15_</v>
       </c>
-      <c r="D16" s="11" t="str">
+      <c r="D16" s="10" t="str">
         <f t="shared" si="1"/>
         <v>■</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="7">
+      <c r="A17" s="6">
         <v>16</v>
       </c>
-      <c r="C17" s="7" t="str">
+      <c r="C17" s="6" t="str">
         <f t="shared" si="0"/>
         <v>16_</v>
       </c>
-      <c r="D17" s="11" t="str">
+      <c r="D17" s="10" t="str">
         <f t="shared" si="1"/>
         <v>■</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="7">
+      <c r="A18" s="6">
         <v>17</v>
       </c>
-      <c r="C18" s="7" t="str">
+      <c r="C18" s="6" t="str">
         <f t="shared" si="0"/>
         <v>17_</v>
       </c>
-      <c r="D18" s="11" t="str">
+      <c r="D18" s="10" t="str">
         <f t="shared" si="1"/>
         <v>■</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="7">
+      <c r="A19" s="6">
         <v>18</v>
       </c>
-      <c r="C19" s="7" t="str">
+      <c r="C19" s="6" t="str">
         <f t="shared" si="0"/>
         <v>18_</v>
       </c>
-      <c r="D19" s="11" t="str">
+      <c r="D19" s="10" t="str">
         <f t="shared" si="1"/>
         <v>■</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="7">
+      <c r="A20" s="6">
         <v>19</v>
       </c>
-      <c r="C20" s="7" t="str">
+      <c r="C20" s="6" t="str">
         <f t="shared" si="0"/>
         <v>19_</v>
       </c>
-      <c r="D20" s="11" t="str">
+      <c r="D20" s="10" t="str">
         <f t="shared" si="1"/>
         <v>■</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="7">
+      <c r="A21" s="6">
         <v>20</v>
       </c>
-      <c r="C21" s="7" t="str">
+      <c r="C21" s="6" t="str">
         <f t="shared" si="0"/>
         <v>20_</v>
       </c>
-      <c r="D21" s="11" t="str">
+      <c r="D21" s="10" t="str">
         <f t="shared" si="1"/>
         <v>■</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="7">
+      <c r="A22" s="6">
         <v>21</v>
       </c>
-      <c r="C22" s="7" t="str">
+      <c r="C22" s="6" t="str">
         <f t="shared" si="0"/>
         <v>21_</v>
       </c>
-      <c r="D22" s="11" t="str">
+      <c r="D22" s="10" t="str">
         <f t="shared" si="1"/>
         <v>■</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="7">
+      <c r="A23" s="6">
         <v>22</v>
       </c>
-      <c r="C23" s="7" t="str">
+      <c r="C23" s="6" t="str">
         <f t="shared" si="0"/>
         <v>22_</v>
       </c>
-      <c r="D23" s="11" t="str">
+      <c r="D23" s="10" t="str">
         <f t="shared" si="1"/>
         <v>■</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="7">
+      <c r="A24" s="6">
         <v>23</v>
       </c>
-      <c r="C24" s="7" t="str">
+      <c r="C24" s="6" t="str">
         <f t="shared" si="0"/>
         <v>23_</v>
       </c>
-      <c r="D24" s="11" t="str">
+      <c r="D24" s="10" t="str">
         <f t="shared" si="1"/>
         <v>■</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" s="7">
+      <c r="A25" s="6">
         <v>24</v>
       </c>
-      <c r="C25" s="7" t="str">
+      <c r="C25" s="6" t="str">
         <f t="shared" si="0"/>
         <v>24_</v>
       </c>
-      <c r="D25" s="11" t="str">
+      <c r="D25" s="10" t="str">
         <f t="shared" si="1"/>
         <v>■</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="7">
+      <c r="A26" s="6">
         <v>25</v>
       </c>
-      <c r="C26" s="7" t="str">
+      <c r="C26" s="6" t="str">
         <f t="shared" si="0"/>
         <v>25_</v>
       </c>
-      <c r="D26" s="11" t="str">
+      <c r="D26" s="10" t="str">
         <f t="shared" si="1"/>
         <v>■</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" s="7">
+      <c r="A27" s="6">
         <v>26</v>
       </c>
-      <c r="C27" s="7" t="str">
+      <c r="C27" s="6" t="str">
         <f t="shared" si="0"/>
         <v>26_</v>
       </c>
-      <c r="D27" s="11" t="str">
+      <c r="D27" s="10" t="str">
         <f t="shared" si="1"/>
         <v>■</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" s="7">
+      <c r="A28" s="6">
         <v>27</v>
       </c>
-      <c r="C28" s="7" t="str">
+      <c r="C28" s="6" t="str">
         <f t="shared" si="0"/>
         <v>27_</v>
       </c>
-      <c r="D28" s="11" t="str">
+      <c r="D28" s="10" t="str">
         <f t="shared" si="1"/>
         <v>■</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" s="7">
+      <c r="A29" s="6">
         <v>28</v>
       </c>
-      <c r="C29" s="7" t="str">
+      <c r="C29" s="6" t="str">
         <f t="shared" si="0"/>
         <v>28_</v>
       </c>
-      <c r="D29" s="11" t="str">
+      <c r="D29" s="10" t="str">
         <f t="shared" si="1"/>
         <v>■</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A30" s="7">
+      <c r="A30" s="6">
         <v>29</v>
       </c>
-      <c r="C30" s="7" t="str">
+      <c r="C30" s="6" t="str">
         <f t="shared" si="0"/>
         <v>29_</v>
       </c>
-      <c r="D30" s="11" t="str">
+      <c r="D30" s="10" t="str">
         <f t="shared" si="1"/>
         <v>■</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A31" s="7">
-        <v>30</v>
-      </c>
-      <c r="C31" s="7" t="str">
+      <c r="A31" s="6">
+        <v>30</v>
+      </c>
+      <c r="C31" s="6" t="str">
         <f t="shared" si="0"/>
         <v>30_</v>
       </c>
-      <c r="D31" s="11" t="str">
+      <c r="D31" s="10" t="str">
         <f t="shared" si="1"/>
         <v>■</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A32" s="7">
+      <c r="A32" s="6">
         <v>31</v>
       </c>
-      <c r="C32" s="7" t="str">
+      <c r="C32" s="6" t="str">
         <f t="shared" si="0"/>
         <v>31_</v>
       </c>
-      <c r="D32" s="11" t="str">
+      <c r="D32" s="10" t="str">
         <f t="shared" si="1"/>
         <v>■</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A33" s="7">
+      <c r="A33" s="6">
         <v>32</v>
       </c>
-      <c r="C33" s="7" t="str">
+      <c r="C33" s="6" t="str">
         <f t="shared" si="0"/>
         <v>32_</v>
       </c>
-      <c r="D33" s="11" t="str">
+      <c r="D33" s="10" t="str">
         <f t="shared" si="1"/>
         <v>■</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A34" s="7">
+      <c r="A34" s="6">
         <v>33</v>
       </c>
-      <c r="C34" s="7" t="str">
+      <c r="C34" s="6" t="str">
         <f t="shared" si="0"/>
         <v>33_</v>
       </c>
-      <c r="D34" s="11" t="str">
+      <c r="D34" s="10" t="str">
         <f t="shared" si="1"/>
         <v>■</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A35" s="7">
+      <c r="A35" s="6">
         <v>34</v>
       </c>
-      <c r="C35" s="7" t="str">
+      <c r="C35" s="6" t="str">
         <f t="shared" si="0"/>
         <v>34_</v>
       </c>
-      <c r="D35" s="11" t="str">
+      <c r="D35" s="10" t="str">
         <f t="shared" si="1"/>
         <v>■</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A36" s="7">
+      <c r="A36" s="6">
         <v>35</v>
       </c>
-      <c r="C36" s="7" t="str">
+      <c r="C36" s="6" t="str">
         <f t="shared" si="0"/>
         <v>35_</v>
       </c>
-      <c r="D36" s="11" t="str">
+      <c r="D36" s="10" t="str">
         <f t="shared" si="1"/>
         <v>■</v>
       </c>
@@ -1742,8 +1864,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73036C97-3E40-45BA-9A74-D470AB09B48D}">
   <dimension ref="A1:AH27"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Y33" sqref="Y33"/>
+    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7:S7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="13.5" outlineLevelCol="1" x14ac:dyDescent="0.55000000000000004"/>
@@ -1776,23 +1898,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="T1" s="10" t="s">
+      <c r="T1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="V1" s="8"/>
-    </row>
-    <row r="2" spans="1:34" s="9" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="12" t="s">
+      <c r="V1" s="7"/>
+    </row>
+    <row r="2" spans="1:34" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="C2" s="27"/>
-      <c r="D2" s="28"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="25"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -1809,63 +1931,63 @@
       <c r="R2" s="2"/>
       <c r="S2" s="2"/>
       <c r="T2" s="2"/>
-      <c r="U2" s="29">
+      <c r="U2" s="26">
         <v>1</v>
       </c>
-      <c r="V2" s="30"/>
-      <c r="W2" s="30"/>
-      <c r="X2" s="30"/>
-      <c r="Y2" s="30"/>
-      <c r="Z2" s="30"/>
-      <c r="AA2" s="31"/>
-      <c r="AB2" s="21">
+      <c r="V2" s="27"/>
+      <c r="W2" s="27"/>
+      <c r="X2" s="27"/>
+      <c r="Y2" s="27"/>
+      <c r="Z2" s="27"/>
+      <c r="AA2" s="28"/>
+      <c r="AB2" s="18">
         <v>2</v>
       </c>
-      <c r="AC2" s="21"/>
-      <c r="AD2" s="21"/>
-      <c r="AE2" s="21"/>
-      <c r="AF2" s="21"/>
-      <c r="AG2" s="21"/>
-      <c r="AH2" s="21"/>
+      <c r="AC2" s="18"/>
+      <c r="AD2" s="18"/>
+      <c r="AE2" s="18"/>
+      <c r="AF2" s="18"/>
+      <c r="AG2" s="18"/>
+      <c r="AH2" s="18"/>
     </row>
     <row r="3" spans="1:34" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3" s="20"/>
+      <c r="D3" s="21"/>
+      <c r="T3" s="2"/>
+      <c r="U3" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="V3" s="20"/>
+      <c r="W3" s="20"/>
+      <c r="X3" s="20"/>
+      <c r="Y3" s="20"/>
+      <c r="Z3" s="20"/>
+      <c r="AA3" s="21"/>
+      <c r="AB3" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="AC3" s="22"/>
+      <c r="AD3" s="22"/>
+      <c r="AE3" s="22"/>
+      <c r="AF3" s="22"/>
+      <c r="AG3" s="22"/>
+      <c r="AH3" s="22"/>
+    </row>
+    <row r="4" spans="1:34" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="C3" s="23"/>
-      <c r="D3" s="24"/>
-      <c r="T3" s="2"/>
-      <c r="U3" s="22" t="s">
-        <v>64</v>
-      </c>
-      <c r="V3" s="23"/>
-      <c r="W3" s="23"/>
-      <c r="X3" s="23"/>
-      <c r="Y3" s="23"/>
-      <c r="Z3" s="23"/>
-      <c r="AA3" s="24"/>
-      <c r="AB3" s="25" t="s">
-        <v>65</v>
-      </c>
-      <c r="AC3" s="25"/>
-      <c r="AD3" s="25"/>
-      <c r="AE3" s="25"/>
-      <c r="AF3" s="25"/>
-      <c r="AG3" s="25"/>
-      <c r="AH3" s="25"/>
-    </row>
-    <row r="4" spans="1:34" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="C4" s="23"/>
-      <c r="D4" s="24"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="21"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
@@ -1882,34 +2004,34 @@
       <c r="R4" s="2"/>
       <c r="S4" s="2"/>
       <c r="T4" s="2"/>
-      <c r="U4" s="22" t="s">
+      <c r="U4" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="V4" s="20"/>
+      <c r="W4" s="20"/>
+      <c r="X4" s="20"/>
+      <c r="Y4" s="20"/>
+      <c r="Z4" s="20"/>
+      <c r="AA4" s="21"/>
+      <c r="AB4" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="V4" s="23"/>
-      <c r="W4" s="23"/>
-      <c r="X4" s="23"/>
-      <c r="Y4" s="23"/>
-      <c r="Z4" s="23"/>
-      <c r="AA4" s="24"/>
-      <c r="AB4" s="22" t="s">
-        <v>67</v>
-      </c>
-      <c r="AC4" s="23"/>
-      <c r="AD4" s="23"/>
-      <c r="AE4" s="23"/>
-      <c r="AF4" s="23"/>
-      <c r="AG4" s="23"/>
-      <c r="AH4" s="24"/>
+      <c r="AC4" s="20"/>
+      <c r="AD4" s="20"/>
+      <c r="AE4" s="20"/>
+      <c r="AF4" s="20"/>
+      <c r="AG4" s="20"/>
+      <c r="AH4" s="21"/>
     </row>
     <row r="5" spans="1:34" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="B5" s="32" t="s">
+      <c r="B5" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="C5" s="33"/>
-      <c r="D5" s="34"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="31"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
@@ -1926,213 +2048,216 @@
       <c r="R5" s="2"/>
       <c r="S5" s="2"/>
       <c r="T5" s="2"/>
-      <c r="U5" s="29" t="s">
+      <c r="U5" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="V5" s="27"/>
+      <c r="W5" s="27"/>
+      <c r="X5" s="27"/>
+      <c r="Y5" s="27"/>
+      <c r="Z5" s="27"/>
+      <c r="AA5" s="28"/>
+      <c r="AB5" s="26" t="s">
         <v>68</v>
       </c>
-      <c r="V5" s="30"/>
-      <c r="W5" s="30"/>
-      <c r="X5" s="30"/>
-      <c r="Y5" s="30"/>
-      <c r="Z5" s="30"/>
-      <c r="AA5" s="31"/>
-      <c r="AB5" s="29" t="s">
-        <v>69</v>
-      </c>
-      <c r="AC5" s="30"/>
-      <c r="AD5" s="30"/>
-      <c r="AE5" s="30"/>
-      <c r="AF5" s="30"/>
-      <c r="AG5" s="30"/>
-      <c r="AH5" s="31"/>
+      <c r="AC5" s="27"/>
+      <c r="AD5" s="27"/>
+      <c r="AE5" s="27"/>
+      <c r="AF5" s="27"/>
+      <c r="AG5" s="27"/>
+      <c r="AH5" s="28"/>
     </row>
     <row r="6" spans="1:34" ht="44.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="32" t="s">
+      <c r="B6" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="C6" s="33"/>
-      <c r="D6" s="34"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="31"/>
       <c r="T6" s="2"/>
-      <c r="U6" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="V6" s="23"/>
-      <c r="W6" s="23"/>
-      <c r="X6" s="23"/>
-      <c r="Y6" s="23"/>
-      <c r="Z6" s="23"/>
-      <c r="AA6" s="24"/>
-      <c r="AB6" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC6" s="23"/>
-      <c r="AD6" s="23"/>
-      <c r="AE6" s="23"/>
-      <c r="AF6" s="23"/>
-      <c r="AG6" s="23"/>
-      <c r="AH6" s="24"/>
-    </row>
-    <row r="7" spans="1:34" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="J7" s="20" t="s">
+      <c r="U6" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="V6" s="20"/>
+      <c r="W6" s="20"/>
+      <c r="X6" s="20"/>
+      <c r="Y6" s="20"/>
+      <c r="Z6" s="20"/>
+      <c r="AA6" s="21"/>
+      <c r="AB6" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC6" s="20"/>
+      <c r="AD6" s="20"/>
+      <c r="AE6" s="20"/>
+      <c r="AF6" s="20"/>
+      <c r="AG6" s="20"/>
+      <c r="AH6" s="21"/>
+    </row>
+    <row r="7" spans="1:34" s="33" customFormat="1" ht="35.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="32"/>
+      <c r="B7" s="32"/>
+      <c r="C7" s="32" t="s">
+        <v>113</v>
+      </c>
+      <c r="D7" s="32"/>
+      <c r="J7" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="K7" s="17"/>
+      <c r="L7" s="17"/>
+      <c r="M7" s="17"/>
+      <c r="N7" s="17"/>
+      <c r="O7" s="17"/>
+      <c r="P7" s="17"/>
+      <c r="Q7" s="17"/>
+      <c r="R7" s="17"/>
+      <c r="S7" s="17"/>
+      <c r="T7" s="34"/>
+      <c r="U7" s="35">
+        <v>1</v>
+      </c>
+      <c r="V7" s="35">
+        <v>2</v>
+      </c>
+      <c r="W7" s="35">
+        <v>3</v>
+      </c>
+      <c r="X7" s="35">
+        <v>4</v>
+      </c>
+      <c r="Y7" s="35">
+        <v>5</v>
+      </c>
+      <c r="Z7" s="35">
+        <v>6</v>
+      </c>
+      <c r="AA7" s="35">
+        <v>7</v>
+      </c>
+      <c r="AB7" s="35">
+        <v>1</v>
+      </c>
+      <c r="AC7" s="35">
+        <v>2</v>
+      </c>
+      <c r="AD7" s="35">
+        <v>3</v>
+      </c>
+      <c r="AE7" s="35">
+        <v>4</v>
+      </c>
+      <c r="AF7" s="35">
+        <v>5</v>
+      </c>
+      <c r="AG7" s="35">
+        <v>6</v>
+      </c>
+      <c r="AH7" s="35">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:34" s="3" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="I8" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="J8" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="K8" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="K7" s="20"/>
-      <c r="L7" s="20"/>
-      <c r="M7" s="20"/>
-      <c r="N7" s="20"/>
-      <c r="O7" s="20"/>
-      <c r="P7" s="20"/>
-      <c r="Q7" s="20"/>
-      <c r="R7" s="20"/>
-      <c r="S7" s="20"/>
-      <c r="U7" s="15">
-        <v>1</v>
-      </c>
-      <c r="V7" s="15">
-        <v>2</v>
-      </c>
-      <c r="W7" s="15">
-        <v>3</v>
-      </c>
-      <c r="X7" s="15">
-        <v>4</v>
-      </c>
-      <c r="Y7" s="15">
-        <v>5</v>
-      </c>
-      <c r="Z7" s="15">
-        <v>6</v>
-      </c>
-      <c r="AA7" s="15">
+      <c r="L8" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="M8" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="N8" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="O8" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="P8" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q8" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="R8" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="S8" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="T8" s="14"/>
+      <c r="U8" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="AB7" s="15">
-        <v>1</v>
-      </c>
-      <c r="AC7" s="15">
-        <v>2</v>
-      </c>
-      <c r="AD7" s="15">
-        <v>3</v>
-      </c>
-      <c r="AE7" s="15">
-        <v>4</v>
-      </c>
-      <c r="AF7" s="15">
-        <v>5</v>
-      </c>
-      <c r="AG7" s="15">
-        <v>6</v>
-      </c>
-      <c r="AH7" s="15">
+      <c r="V8" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="W8" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="X8" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y8" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z8" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA8" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB8" s="11" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="8" spans="1:34" s="3" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="D8" s="12" t="s">
+      <c r="AC8" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD8" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="12" t="s">
+      <c r="AE8" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="12" t="s">
+      <c r="AF8" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="G8" s="12" t="s">
+      <c r="AG8" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="H8" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="I8" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="J8" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="K8" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="L8" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="M8" s="17" t="s">
-        <v>80</v>
-      </c>
-      <c r="N8" s="17" t="s">
-        <v>81</v>
-      </c>
-      <c r="O8" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="P8" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q8" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="R8" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="S8" s="17" t="s">
-        <v>86</v>
-      </c>
-      <c r="T8" s="16"/>
-      <c r="U8" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="V8" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="W8" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="X8" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="Y8" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="Z8" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="AA8" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="AB8" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="AC8" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="AD8" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="AE8" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="AF8" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="AG8" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="AH8" s="12" t="s">
+      <c r="AH8" s="11" t="s">
         <v>47</v>
       </c>
     </row>
@@ -2141,14 +2266,14 @@
         <v>1</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="4" t="s">
         <v>5</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F9" s="4">
         <v>50</v>
@@ -2157,7 +2282,7 @@
         <v>13</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I9" s="4" t="s">
         <v>30</v>
@@ -2243,14 +2368,14 @@
         <v>2</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="4" t="s">
         <v>5</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F10" s="4">
         <v>50</v>
@@ -2259,7 +2384,7 @@
         <v>13</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I10" s="4" t="s">
         <v>30</v>
@@ -2344,8 +2469,8 @@
       <c r="A11" s="4">
         <v>3</v>
       </c>
-      <c r="B11" s="18" t="s">
-        <v>58</v>
+      <c r="B11" s="16" t="s">
+        <v>57</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="4" t="s">
@@ -2400,7 +2525,7 @@
         <v>14</v>
       </c>
       <c r="U11" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="V11" s="4" t="s">
         <v>44</v>
@@ -2421,9 +2546,9 @@
         <v>5</v>
       </c>
       <c r="AB11" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="AC11" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="AC11" s="4" t="s">
         <v>44</v>
       </c>
       <c r="AD11" s="4" t="s">
@@ -2447,7 +2572,7 @@
         <v>4</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="4" t="s">
@@ -2502,7 +2627,7 @@
         <v>14</v>
       </c>
       <c r="U12" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="V12" s="4" t="s">
         <v>5</v>
@@ -2523,7 +2648,7 @@
         <v>5</v>
       </c>
       <c r="AB12" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AC12" s="4" t="s">
         <v>5</v>
@@ -2549,7 +2674,7 @@
         <v>5</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="4" t="s">
@@ -2604,7 +2729,7 @@
         <v>14</v>
       </c>
       <c r="U13" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="V13" s="4" t="s">
         <v>5</v>
@@ -2625,7 +2750,7 @@
         <v>5</v>
       </c>
       <c r="AB13" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AC13" s="4" t="s">
         <v>5</v>
@@ -2718,7 +2843,7 @@
         <v>19</v>
       </c>
       <c r="Y14" s="4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="Z14" s="4" t="s">
         <v>13</v>
@@ -2739,7 +2864,7 @@
         <v>19</v>
       </c>
       <c r="AF14" s="4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="AG14" s="4" t="s">
         <v>13</v>
@@ -2820,7 +2945,7 @@
         <v>19</v>
       </c>
       <c r="Y15" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="Z15" s="4" t="s">
         <v>13</v>
@@ -2841,7 +2966,7 @@
         <v>19</v>
       </c>
       <c r="AF15" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="AG15" s="4" t="s">
         <v>13</v>
@@ -3176,8 +3301,8 @@
       <c r="G19" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H19" s="6" t="s">
-        <v>88</v>
+      <c r="H19" s="5" t="s">
+        <v>86</v>
       </c>
       <c r="I19" s="4" t="s">
         <v>30</v>
@@ -3380,8 +3505,8 @@
       <c r="G21" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H21" s="6" t="s">
-        <v>88</v>
+      <c r="H21" s="5" t="s">
+        <v>86</v>
       </c>
       <c r="I21" s="4" t="s">
         <v>30</v>
@@ -3467,7 +3592,7 @@
         <v>14</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="4" t="s">
@@ -3569,7 +3694,7 @@
         <v>15</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="4" t="s">
@@ -3671,7 +3796,7 @@
         <v>16</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="4" t="s">
@@ -3890,8 +4015,8 @@
       <c r="G26" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H26" s="6" t="s">
-        <v>88</v>
+      <c r="H26" s="5" t="s">
+        <v>86</v>
       </c>
       <c r="I26" s="4" t="s">
         <v>30</v>
@@ -3992,7 +4117,7 @@
       <c r="G27" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H27" s="6">
+      <c r="H27" s="5">
         <v>401768</v>
       </c>
       <c r="I27" s="4" t="s">
@@ -4094,9 +4219,19 @@
     <mergeCell ref="U6:AA6"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="A1:XFD6 A7:J7 T7:XFD7 A8:XFD1048576">
+  <conditionalFormatting sqref="A1:XFD6 T7:XFD7 A9:XFD1048576 A7:B8 D8:XFD8 D7:I7">
+    <cfRule type="expression" dxfId="3" priority="3">
+      <formula>A1="-"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C7:C8">
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>C7="-"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J7">
     <cfRule type="expression" dxfId="0" priority="1">
-      <formula>A1="-"</formula>
+      <formula>J7="-"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations disablePrompts="1" count="4">
@@ -4116,4 +4251,2425 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91E0CFC7-0DE9-40C6-A624-60273AFFCAB5}">
+  <dimension ref="A1:AH27"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="13.5" outlineLevelCol="1" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="1" width="9.83203125" style="2" customWidth="1"/>
+    <col min="2" max="3" width="14.75" style="2" customWidth="1"/>
+    <col min="4" max="4" width="5.6640625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="13.58203125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="5.58203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.08203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.25" style="2" customWidth="1"/>
+    <col min="9" max="9" width="9.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="19" width="7" style="2" customWidth="1" outlineLevel="1"/>
+    <col min="20" max="20" width="4.33203125" style="3" customWidth="1"/>
+    <col min="21" max="21" width="8.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="7.58203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="10.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="5.4140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="5.9140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="10" style="2" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="8.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="13.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="5" style="2" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="10.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="5.4140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="5.9140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="9.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="35" max="16384" width="8.58203125" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:34" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="T1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="V1" s="7"/>
+    </row>
+    <row r="2" spans="1:34" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="C2" s="24"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
+      <c r="U2" s="26">
+        <v>1</v>
+      </c>
+      <c r="V2" s="27"/>
+      <c r="W2" s="27"/>
+      <c r="X2" s="27"/>
+      <c r="Y2" s="27"/>
+      <c r="Z2" s="27"/>
+      <c r="AA2" s="28"/>
+      <c r="AB2" s="18">
+        <v>2</v>
+      </c>
+      <c r="AC2" s="18"/>
+      <c r="AD2" s="18"/>
+      <c r="AE2" s="18"/>
+      <c r="AF2" s="18"/>
+      <c r="AG2" s="18"/>
+      <c r="AH2" s="18"/>
+    </row>
+    <row r="3" spans="1:34" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3" s="20"/>
+      <c r="D3" s="21"/>
+      <c r="T3" s="2"/>
+      <c r="U3" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="V3" s="20"/>
+      <c r="W3" s="20"/>
+      <c r="X3" s="20"/>
+      <c r="Y3" s="20"/>
+      <c r="Z3" s="20"/>
+      <c r="AA3" s="21"/>
+      <c r="AB3" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="AC3" s="22"/>
+      <c r="AD3" s="22"/>
+      <c r="AE3" s="22"/>
+      <c r="AF3" s="22"/>
+      <c r="AG3" s="22"/>
+      <c r="AH3" s="22"/>
+    </row>
+    <row r="4" spans="1:34" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="C4" s="20"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2"/>
+      <c r="S4" s="2"/>
+      <c r="T4" s="2"/>
+      <c r="U4" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="V4" s="20"/>
+      <c r="W4" s="20"/>
+      <c r="X4" s="20"/>
+      <c r="Y4" s="20"/>
+      <c r="Z4" s="20"/>
+      <c r="AA4" s="21"/>
+      <c r="AB4" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="AC4" s="20"/>
+      <c r="AD4" s="20"/>
+      <c r="AE4" s="20"/>
+      <c r="AF4" s="20"/>
+      <c r="AG4" s="20"/>
+      <c r="AH4" s="21"/>
+    </row>
+    <row r="5" spans="1:34" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="B5" s="29" t="s">
+        <v>91</v>
+      </c>
+      <c r="C5" s="30"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="2"/>
+      <c r="S5" s="2"/>
+      <c r="T5" s="2"/>
+      <c r="U5" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="V5" s="27"/>
+      <c r="W5" s="27"/>
+      <c r="X5" s="27"/>
+      <c r="Y5" s="27"/>
+      <c r="Z5" s="27"/>
+      <c r="AA5" s="28"/>
+      <c r="AB5" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="AC5" s="27"/>
+      <c r="AD5" s="27"/>
+      <c r="AE5" s="27"/>
+      <c r="AF5" s="27"/>
+      <c r="AG5" s="27"/>
+      <c r="AH5" s="28"/>
+    </row>
+    <row r="6" spans="1:34" ht="44.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" s="30"/>
+      <c r="D6" s="31"/>
+      <c r="T6" s="2"/>
+      <c r="U6" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="V6" s="20"/>
+      <c r="W6" s="20"/>
+      <c r="X6" s="20"/>
+      <c r="Y6" s="20"/>
+      <c r="Z6" s="20"/>
+      <c r="AA6" s="21"/>
+      <c r="AB6" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC6" s="20"/>
+      <c r="AD6" s="20"/>
+      <c r="AE6" s="20"/>
+      <c r="AF6" s="20"/>
+      <c r="AG6" s="20"/>
+      <c r="AH6" s="21"/>
+    </row>
+    <row r="7" spans="1:34" s="33" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="32"/>
+      <c r="B7" s="32"/>
+      <c r="C7" s="32" t="s">
+        <v>113</v>
+      </c>
+      <c r="D7" s="32"/>
+      <c r="J7" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="K7" s="17"/>
+      <c r="L7" s="17"/>
+      <c r="M7" s="17"/>
+      <c r="N7" s="17"/>
+      <c r="O7" s="17"/>
+      <c r="P7" s="17"/>
+      <c r="Q7" s="17"/>
+      <c r="R7" s="17"/>
+      <c r="S7" s="17"/>
+      <c r="T7" s="34"/>
+      <c r="U7" s="35">
+        <v>1</v>
+      </c>
+      <c r="V7" s="35">
+        <v>2</v>
+      </c>
+      <c r="W7" s="35">
+        <v>3</v>
+      </c>
+      <c r="X7" s="35">
+        <v>4</v>
+      </c>
+      <c r="Y7" s="35">
+        <v>5</v>
+      </c>
+      <c r="Z7" s="35">
+        <v>6</v>
+      </c>
+      <c r="AA7" s="35">
+        <v>7</v>
+      </c>
+      <c r="AB7" s="35">
+        <v>1</v>
+      </c>
+      <c r="AC7" s="35">
+        <v>2</v>
+      </c>
+      <c r="AD7" s="35">
+        <v>3</v>
+      </c>
+      <c r="AE7" s="35">
+        <v>4</v>
+      </c>
+      <c r="AF7" s="35">
+        <v>5</v>
+      </c>
+      <c r="AG7" s="35">
+        <v>6</v>
+      </c>
+      <c r="AH7" s="35">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:34" s="3" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="I8" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="J8" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="K8" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="L8" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="M8" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="N8" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="O8" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="P8" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q8" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="R8" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="S8" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="T8" s="14"/>
+      <c r="U8" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="V8" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="W8" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="X8" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y8" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z8" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA8" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB8" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC8" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD8" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE8" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="AF8" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="AG8" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="AH8" s="11" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:34" ht="15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="4">
+        <v>1</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="F9" s="4">
+        <v>50</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="J9" s="4">
+        <v>1</v>
+      </c>
+      <c r="K9" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="L9" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="M9" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="N9" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="O9" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="P9" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q9" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="R9" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="S9" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="T9" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="U9" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="V9" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="W9" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="X9" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y9" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z9" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA9" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB9" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="AC9" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD9" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="AE9" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF9" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG9" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="AH9" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:34" ht="15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="4">
+        <v>2</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="F10" s="4">
+        <v>50</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="J10" s="4">
+        <v>3</v>
+      </c>
+      <c r="K10" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="L10" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="M10" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="N10" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="O10" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="P10" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q10" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="R10" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="S10" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="T10" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="U10" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="V10" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="W10" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="X10" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y10" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z10" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA10" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB10" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="AC10" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD10" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="AE10" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF10" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG10" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="AH10" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:34" ht="40.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="4">
+        <v>3</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" s="4">
+        <v>8</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H11" s="4">
+        <v>9999</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="J11" s="4">
+        <v>5</v>
+      </c>
+      <c r="K11" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="L11" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="M11" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="N11" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="O11" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="P11" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q11" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="R11" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="S11" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="T11" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="U11" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="V11" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="W11" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="X11" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y11" s="4">
+        <v>8</v>
+      </c>
+      <c r="Z11" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA11" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB11" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="AC11" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="AD11" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="AE11" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="AF11" s="4">
+        <v>8</v>
+      </c>
+      <c r="AG11" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="AH11" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:34" ht="15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="4">
+        <v>4</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" s="4">
+        <v>200</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="J12" s="4">
+        <v>7</v>
+      </c>
+      <c r="K12" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="L12" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="M12" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="N12" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="O12" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="P12" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q12" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="R12" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="S12" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="T12" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="U12" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="V12" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="W12" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="X12" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y12" s="4">
+        <v>200</v>
+      </c>
+      <c r="Z12" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA12" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB12" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="AC12" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD12" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE12" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="AF12" s="4">
+        <v>200</v>
+      </c>
+      <c r="AG12" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AH12" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:34" ht="15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="4">
+        <v>5</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" s="4">
+        <v>200</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="J13" s="4">
+        <v>9</v>
+      </c>
+      <c r="K13" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="L13" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="M13" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="N13" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="O13" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="P13" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q13" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="R13" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="S13" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="T13" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="U13" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="V13" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="W13" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="X13" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y13" s="4">
+        <v>200</v>
+      </c>
+      <c r="Z13" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA13" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB13" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="AC13" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD13" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE13" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="AF13" s="4">
+        <v>200</v>
+      </c>
+      <c r="AG13" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AH13" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:34" ht="15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="4">
+        <v>6</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" s="4">
+        <v>1</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H14" s="4">
+        <v>0</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="J14" s="4">
+        <v>11</v>
+      </c>
+      <c r="K14" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="L14" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="M14" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="N14" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="O14" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="P14" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q14" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="R14" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="S14" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="T14" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="U14" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="V14" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="W14" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="X14" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y14" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="Z14" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA14" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="AB14" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="AC14" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD14" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE14" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="AF14" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="AG14" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="AH14" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="1:34" ht="15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="4">
+        <v>7</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H15" s="4">
+        <v>0</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="J15" s="4">
+        <v>13</v>
+      </c>
+      <c r="K15" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="L15" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="M15" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="N15" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="O15" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="P15" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q15" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="R15" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="S15" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="T15" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="U15" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="V15" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="W15" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="X15" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y15" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="Z15" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA15" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB15" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC15" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD15" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE15" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="AF15" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="AG15" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="AH15" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:34" ht="15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="4">
+        <v>8</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16" s="4">
+        <v>1000</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="J16" s="4">
+        <v>15</v>
+      </c>
+      <c r="K16" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="L16" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="M16" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="N16" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="O16" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="P16" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q16" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="R16" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="S16" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="T16" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="U16" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="V16" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="W16" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="X16" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y16" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z16" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA16" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB16" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="AC16" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD16" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE16" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF16" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG16" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="AH16" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:34" ht="15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="4">
+        <v>9</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H17" s="4">
+        <v>1</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="J17" s="4">
+        <v>17</v>
+      </c>
+      <c r="K17" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="L17" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="M17" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="N17" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="O17" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="P17" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q17" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="R17" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="S17" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="T17" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="U17" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="V17" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="W17" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="X17" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y17" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z17" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA17" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB17" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="AC17" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD17" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE17" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF17" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG17" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="AH17" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:34" ht="15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="4">
+        <v>10</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F18" s="4">
+        <v>100</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H18" s="4">
+        <v>9999</v>
+      </c>
+      <c r="I18" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="J18" s="4">
+        <v>19</v>
+      </c>
+      <c r="K18" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="L18" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="M18" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="N18" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="O18" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="P18" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q18" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="R18" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="S18" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="T18" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="U18" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="V18" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="W18" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="X18" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y18" s="4">
+        <v>100</v>
+      </c>
+      <c r="Z18" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA18" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB18" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC18" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD18" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE18" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="AF18" s="4">
+        <v>100</v>
+      </c>
+      <c r="AG18" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="AH18" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:34" ht="15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="4">
+        <v>11</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="I19" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="J19" s="4">
+        <v>2</v>
+      </c>
+      <c r="K19" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="L19" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="M19" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="N19" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="O19" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="P19" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q19" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="R19" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="S19" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="T19" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="U19" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="V19" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="W19" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="X19" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y19" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z19" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA19" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB19" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="AC19" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD19" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE19" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF19" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AG19" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="AH19" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:34" ht="15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="4">
+        <v>12</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F20" s="4">
+        <v>100</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H20" s="4">
+        <v>9999</v>
+      </c>
+      <c r="I20" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="J20" s="4">
+        <v>4</v>
+      </c>
+      <c r="K20" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="L20" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="M20" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="N20" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="O20" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="P20" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q20" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="R20" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="S20" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="T20" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="U20" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="V20" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="W20" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="X20" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y20" s="4">
+        <v>100</v>
+      </c>
+      <c r="Z20" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA20" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB20" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC20" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD20" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE20" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="AF20" s="4">
+        <v>100</v>
+      </c>
+      <c r="AG20" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="AH20" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:34" ht="15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="4">
+        <v>13</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="I21" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="J21" s="4">
+        <v>6</v>
+      </c>
+      <c r="K21" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="L21" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="M21" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="N21" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="O21" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="P21" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q21" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="R21" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="S21" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="T21" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="U21" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="V21" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="W21" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="X21" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y21" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z21" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA21" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB21" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="AC21" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD21" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE21" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF21" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AG21" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="AH21" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:34" ht="15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" s="4">
+        <v>14</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F22" s="4">
+        <v>20</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I22" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="J22" s="4">
+        <v>8</v>
+      </c>
+      <c r="K22" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="L22" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="M22" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="N22" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="O22" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="P22" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q22" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="R22" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="S22" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="T22" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="U22" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="V22" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="W22" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="X22" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y22" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z22" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA22" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB22" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="AC22" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD22" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE22" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF22" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG22" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="AH22" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:34" ht="15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" s="4">
+        <v>15</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I23" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="J23" s="4">
+        <v>10</v>
+      </c>
+      <c r="K23" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="L23" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="M23" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="N23" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="O23" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="P23" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q23" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="R23" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="S23" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="T23" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="U23" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="V23" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="W23" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="X23" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y23" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z23" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA23" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB23" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="AC23" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD23" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE23" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF23" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG23" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="AH23" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:34" ht="15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" s="4">
+        <v>16</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F24" s="4">
+        <v>100</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H24" s="4">
+        <v>9999</v>
+      </c>
+      <c r="I24" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="J24" s="4">
+        <v>12</v>
+      </c>
+      <c r="K24" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="L24" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="M24" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="N24" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="O24" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="P24" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q24" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="R24" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="S24" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="T24" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="U24" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="V24" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="W24" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="X24" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y24" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z24" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA24" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB24" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="AC24" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD24" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE24" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF24" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG24" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="AH24" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:34" ht="15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" s="4">
+        <v>17</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F25" s="4">
+        <v>20</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H25" s="4">
+        <v>9999</v>
+      </c>
+      <c r="I25" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="J25" s="4">
+        <v>14</v>
+      </c>
+      <c r="K25" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="L25" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="M25" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="N25" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="O25" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="P25" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q25" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="R25" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="S25" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="T25" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="U25" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="V25" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="W25" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="X25" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y25" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z25" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA25" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB25" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="AC25" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD25" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="AE25" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF25" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG25" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="AH25" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:34" ht="15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" s="4">
+        <v>18</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H26" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="I26" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="J26" s="4">
+        <v>16</v>
+      </c>
+      <c r="K26" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="L26" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="M26" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="N26" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="O26" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="P26" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q26" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="R26" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="S26" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="T26" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="U26" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="V26" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="W26" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="X26" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y26" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z26" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA26" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB26" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="AC26" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD26" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="AE26" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF26" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG26" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="AH26" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="1:34" ht="15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" s="4">
+        <v>19</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H27" s="5">
+        <v>401768</v>
+      </c>
+      <c r="I27" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="J27" s="4">
+        <v>18</v>
+      </c>
+      <c r="K27" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="L27" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="M27" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="N27" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="O27" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="P27" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q27" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="R27" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="S27" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="T27" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="U27" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="V27" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="W27" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="X27" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y27" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z27" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA27" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB27" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="AC27" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD27" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="AE27" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF27" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG27" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="AH27" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="16">
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="U6:AA6"/>
+    <mergeCell ref="AB6:AH6"/>
+    <mergeCell ref="J7:S7"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="U4:AA4"/>
+    <mergeCell ref="AB4:AH4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="U5:AA5"/>
+    <mergeCell ref="AB5:AH5"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="U2:AA2"/>
+    <mergeCell ref="AB2:AH2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="U3:AA3"/>
+    <mergeCell ref="AB3:AH3"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <conditionalFormatting sqref="A1:XFD6 A7:J7 T7:XFD7 A8:XFD1048576">
+    <cfRule type="expression" dxfId="2" priority="1">
+      <formula>A1="-"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B5:D5" xr:uid="{121943D5-C5FE-4A59-B9CF-5D062AFA4CCB}">
+      <formula1>"xlsx,csv"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X9:X27 AE9:AE27" xr:uid="{376F6E0D-2E4E-44E4-AE1E-85C8220D71A1}">
+      <formula1>"varchar,numeric,timestamp"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="W9:W27" xr:uid="{E0F3995C-FD25-42D6-B1C3-AF247395C5B0}">
+      <formula1>"-,〇"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="G9:G27 Z9:Z27 AG9:AG27" xr:uid="{76C6132F-4754-4F44-AED0-BBF1A3AF9A3C}">
+      <formula1>"-,NG"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>